--- a/sriramModel-nelson-melancholic-patientID_13-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_13-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.017329865132162</v>
+        <v>2.004616256938126</v>
       </c>
       <c r="C2">
-        <v>2.004202067417695</v>
+        <v>2.000507562325765</v>
       </c>
       <c r="D2">
-        <v>2.012657394382094</v>
+        <v>2.002599576674436</v>
       </c>
       <c r="E2">
-        <v>2.004090592264719</v>
+        <v>2.003435498495203</v>
       </c>
       <c r="F2">
-        <v>2.002404097898211</v>
+        <v>2.001848633091448</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.035951131862727</v>
+        <v>2.009571828147931</v>
       </c>
       <c r="C3">
-        <v>2.008510203680999</v>
+        <v>2.001049876320189</v>
       </c>
       <c r="D3">
-        <v>2.026284413631149</v>
+        <v>2.005338651312534</v>
       </c>
       <c r="E3">
-        <v>2.00837967975253</v>
+        <v>2.006976111650023</v>
       </c>
       <c r="F3">
-        <v>2.00490520131451</v>
+        <v>2.00374726867408</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.055788655396193</v>
+        <v>2.014849949338963</v>
       </c>
       <c r="C4">
-        <v>2.012926347414386</v>
+        <v>2.001627452821639</v>
       </c>
       <c r="D4">
-        <v>2.040825669069943</v>
+        <v>2.008212280412944</v>
       </c>
       <c r="E4">
-        <v>2.012861356450562</v>
+        <v>2.010623028324063</v>
       </c>
       <c r="F4">
-        <v>2.007501246970476</v>
+        <v>2.005696449781885</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.076771695465743</v>
+        <v>2.020434991461745</v>
       </c>
       <c r="C5">
-        <v>2.017452648270417</v>
+        <v>2.002240880474809</v>
       </c>
       <c r="D5">
-        <v>2.056228980999423</v>
+        <v>2.011215934725469</v>
       </c>
       <c r="E5">
-        <v>2.017530291969271</v>
+        <v>2.014377716279837</v>
       </c>
       <c r="F5">
-        <v>2.010190424244041</v>
+        <v>2.007696793559694</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.098833776011641</v>
+        <v>2.02631241420888</v>
       </c>
       <c r="C6">
-        <v>2.022091488040491</v>
+        <v>2.002890829761468</v>
       </c>
       <c r="D6">
-        <v>2.072445346295288</v>
+        <v>2.014345491120523</v>
       </c>
       <c r="E6">
-        <v>2.022381723741853</v>
+        <v>2.018241946860423</v>
       </c>
       <c r="F6">
-        <v>2.012971173929185</v>
+        <v>2.009748993439953</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.121912454976669</v>
+        <v>2.032468722410593</v>
       </c>
       <c r="C7">
-        <v>2.026845483893481</v>
+        <v>2.003578052960211</v>
       </c>
       <c r="D7">
-        <v>2.089428667813704</v>
+        <v>2.017597216213085</v>
       </c>
       <c r="E7">
-        <v>2.027411436149014</v>
+        <v>2.022217795454056</v>
       </c>
       <c r="F7">
-        <v>2.01584218171618</v>
+        <v>2.011853823974289</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.145949160266607</v>
+        <v>2.038891429754209</v>
       </c>
       <c r="C8">
-        <v>2.031717498568312</v>
+        <v>2.004303386845153</v>
       </c>
       <c r="D8">
-        <v>2.107135704440743</v>
+        <v>2.020967755458415</v>
       </c>
       <c r="E8">
-        <v>2.032615748731742</v>
+        <v>2.026307656755086</v>
       </c>
       <c r="F8">
-        <v>2.018802373899178</v>
+        <v>2.014012141954631</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.170889025838449</v>
+        <v>2.045569023806725</v>
       </c>
       <c r="C9">
-        <v>2.036710651849595</v>
+        <v>2.005067755343326</v>
       </c>
       <c r="D9">
-        <v>2.125525893965289</v>
+        <v>2.024454125766894</v>
       </c>
       <c r="E9">
-        <v>2.037991505707339</v>
+        <v>2.030514260482297</v>
       </c>
       <c r="F9">
-        <v>2.021850915452631</v>
+        <v>2.016224888649043</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.196680729234581</v>
+        <v>2.05249093000489</v>
       </c>
       <c r="C10">
-        <v>2.041828336127416</v>
+        <v>2.005872172632517</v>
       </c>
       <c r="D10">
-        <v>2.144561202062018</v>
+        <v>2.028053703590677</v>
       </c>
       <c r="E10">
-        <v>2.043536066148449</v>
+        <v>2.034840689435569</v>
       </c>
       <c r="F10">
-        <v>2.024987207764018</v>
+        <v>2.018493092242638</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.223276348146097</v>
+        <v>2.059647481525908</v>
       </c>
       <c r="C11">
-        <v>2.047074230615939</v>
+        <v>2.006717746004052</v>
       </c>
       <c r="D11">
-        <v>2.164206056845895</v>
+        <v>2.031764217812717</v>
       </c>
       <c r="E11">
-        <v>2.049247296524822</v>
+        <v>2.039290397818902</v>
       </c>
       <c r="F11">
-        <v>2.028210887519998</v>
+        <v>2.020817871066982</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.250631194179435</v>
+        <v>2.067029892157226</v>
       </c>
       <c r="C12">
-        <v>2.052452316707511</v>
+        <v>2.007605679443417</v>
       </c>
       <c r="D12">
-        <v>2.184427225205051</v>
+        <v>2.03558374389584</v>
       </c>
       <c r="E12">
-        <v>2.055123563111823</v>
+        <v>2.043867233667695</v>
       </c>
       <c r="F12">
-        <v>2.031521826174945</v>
+        <v>2.023200436277073</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.278703660349509</v>
+        <v>2.074630230371653</v>
       </c>
       <c r="C13">
-        <v>2.057966895780849</v>
+        <v>2.008537277827486</v>
       </c>
       <c r="D13">
-        <v>2.205193694653333</v>
+        <v>2.039510697775587</v>
       </c>
       <c r="E13">
-        <v>2.061163727152676</v>
+        <v>2.048575465499676</v>
       </c>
       <c r="F13">
-        <v>2.034920130360395</v>
+        <v>2.025642099161034</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.307455087312286</v>
+        <v>2.082441395767158</v>
       </c>
       <c r="C14">
-        <v>2.063622609255549</v>
+        <v>2.009513951324053</v>
       </c>
       <c r="D14">
-        <v>2.226476569521946</v>
+        <v>2.043543830944559</v>
       </c>
       <c r="E14">
-        <v>2.067367142447013</v>
+        <v>2.053419810127005</v>
       </c>
       <c r="F14">
-        <v>2.03840614349068</v>
+        <v>2.028144273304672</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.336849639524303</v>
+        <v>2.090457100605501</v>
       </c>
       <c r="C15">
-        <v>2.069424460684356</v>
+        <v>2.010537220519976</v>
       </c>
       <c r="D15">
-        <v>2.248248973085051</v>
+        <v>2.047682227332312</v>
       </c>
       <c r="E15">
-        <v>2.073733654255617</v>
+        <v>2.058405465762353</v>
       </c>
       <c r="F15">
-        <v>2.041980448364573</v>
+        <v>2.0307084787352</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.366854173517227</v>
+        <v>2.098671840791364</v>
       </c>
       <c r="C16">
-        <v>2.075377845222913</v>
+        <v>2.011608720738535</v>
       </c>
       <c r="D16">
-        <v>2.270485966681571</v>
+        <v>2.05192530121058</v>
       </c>
       <c r="E16">
-        <v>2.080263600253737</v>
+        <v>2.06353814980243</v>
       </c>
       <c r="F16">
-        <v>2.045643870741134</v>
+        <v>2.033336347461097</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.39743811025346</v>
+        <v>2.107080893401053</v>
       </c>
       <c r="C17">
-        <v>2.081488559117465</v>
+        <v>2.01273021001277</v>
       </c>
       <c r="D17">
-        <v>2.293164465794831</v>
+        <v>2.05627279629632</v>
       </c>
       <c r="E17">
-        <v>2.08695781229946</v>
+        <v>2.068824141511384</v>
       </c>
       <c r="F17">
-        <v>2.049397483979511</v>
+        <v>2.036029629360724</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.428573317704931</v>
+        <v>2.115680298919755</v>
       </c>
       <c r="C18">
-        <v>2.087762846315177</v>
+        <v>2.013903575860676</v>
       </c>
       <c r="D18">
-        <v>2.316263161857855</v>
+        <v>2.060724785959541</v>
       </c>
       <c r="E18">
-        <v>2.093817622147391</v>
+        <v>2.07427032993266</v>
       </c>
       <c r="F18">
-        <v>2.053242615733418</v>
+        <v>2.038790198492585</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.460233992800421</v>
+        <v>2.124466853550986</v>
       </c>
       <c r="C19">
-        <v>2.094207431135712</v>
+        <v>2.015130841675739</v>
       </c>
       <c r="D19">
-        <v>2.339762448930336</v>
+        <v>2.065281675144704</v>
       </c>
       <c r="E19">
-        <v>2.100844866863433</v>
+        <v>2.079884268151892</v>
       </c>
       <c r="F19">
-        <v>2.057180853761274</v>
+        <v>2.041620060130609</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.492396551116566</v>
+        <v>2.133438102092938</v>
       </c>
       <c r="C20">
-        <v>2.100829552369227</v>
+        <v>2.016414174912907</v>
       </c>
       <c r="D20">
-        <v>2.363644351213731</v>
+        <v>2.0699442040821</v>
       </c>
       <c r="E20">
-        <v>2.108041898381374</v>
+        <v>2.085674235376521</v>
       </c>
       <c r="F20">
-        <v>2.061214057810902</v>
+        <v>2.04452135942424</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.525039540588788</v>
+        <v>2.142592332388164</v>
       </c>
       <c r="C21">
-        <v>2.107636998969885</v>
+        <v>2.017755896862572</v>
       </c>
       <c r="D21">
-        <v>2.387892460813897</v>
+        <v>2.074713453499521</v>
       </c>
       <c r="E21">
-        <v>2.115411598831438</v>
+        <v>2.091649307747793</v>
       </c>
       <c r="F21">
-        <v>2.065344363407049</v>
+        <v>2.04749638667577</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.558143506182168</v>
+        <v>2.151928576704434</v>
       </c>
       <c r="C22">
-        <v>2.114638155312607</v>
+        <v>2.019158493006526</v>
       </c>
       <c r="D22">
-        <v>2.412491883966394</v>
+        <v>2.079590851493986</v>
       </c>
       <c r="E22">
-        <v>2.122957393150063</v>
+        <v>2.097819438915847</v>
       </c>
       <c r="F22">
-        <v>2.069574202071046</v>
+        <v>2.050547587335086</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.591690943643599</v>
+        <v>2.161446613969635</v>
       </c>
       <c r="C23">
-        <v>2.12184205370353</v>
+        <v>2.020624623791972</v>
       </c>
       <c r="D23">
-        <v>2.437429194422804</v>
+        <v>2.084578183332782</v>
       </c>
       <c r="E23">
-        <v>2.130683266225162</v>
+        <v>2.104195551860315</v>
       </c>
       <c r="F23">
-        <v>2.073906310345598</v>
+        <v>2.053677573760067</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.625666174264472</v>
+        <v>2.171146979796367</v>
       </c>
       <c r="C24">
-        <v>2.129258431028086</v>
+        <v>2.022157137001173</v>
       </c>
       <c r="D24">
-        <v>2.462692390404031</v>
+        <v>2.089677600432343</v>
       </c>
       <c r="E24">
-        <v>2.138593787003561</v>
+        <v>2.110789643882006</v>
       </c>
       <c r="F24">
-        <v>2.078343746848744</v>
+        <v>2.056889134599075</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.660055273240416</v>
+        <v>2.181030978689468</v>
       </c>
       <c r="C25">
-        <v>2.136897787324611</v>
+        <v>2.023759081771483</v>
       </c>
       <c r="D25">
-        <v>2.488270860950737</v>
+        <v>2.094891637437288</v>
       </c>
       <c r="E25">
-        <v>2.146694132609847</v>
+        <v>2.117614906986848</v>
       </c>
       <c r="F25">
-        <v>2.082889917071146</v>
+        <v>2.060185248485654</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.694845986112819</v>
+        <v>2.19110070027499</v>
       </c>
       <c r="C26">
-        <v>2.144771459008644</v>
+        <v>2.025433722098466</v>
       </c>
       <c r="D26">
-        <v>2.51415535619154</v>
+        <v>2.100223220304273</v>
       </c>
       <c r="E26">
-        <v>2.154990113034525</v>
+        <v>2.124685866169054</v>
       </c>
       <c r="F26">
-        <v>2.087548584367791</v>
+        <v>2.063569097604208</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.730027640330079</v>
+        <v>2.201359040711635</v>
       </c>
       <c r="C27">
-        <v>2.152891675737474</v>
+        <v>2.027184556101479</v>
       </c>
       <c r="D27">
-        <v>2.540337968876203</v>
+        <v>2.105675693025963</v>
       </c>
       <c r="E27">
-        <v>2.163488210320625</v>
+        <v>2.13201853854489</v>
       </c>
       <c r="F27">
-        <v>2.09232390547199</v>
+        <v>2.067044080976218</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.765591079353455</v>
+        <v>2.211809729640995</v>
       </c>
       <c r="C28">
-        <v>2.161271670641983</v>
+        <v>2.029015333934965</v>
       </c>
       <c r="D28">
-        <v>2.566812124378094</v>
+        <v>2.111252839101159</v>
       </c>
       <c r="E28">
-        <v>2.172195615747714</v>
+        <v>2.139630616908457</v>
       </c>
       <c r="F28">
-        <v>2.097220451988449</v>
+        <v>2.070613830340611</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.801528590296441</v>
+        <v>2.222457366282172</v>
       </c>
       <c r="C29">
-        <v>2.169925747613477</v>
+        <v>2.030930077083034</v>
       </c>
       <c r="D29">
-        <v>2.593572579383459</v>
+        <v>2.116958898532267</v>
       </c>
       <c r="E29">
-        <v>2.181120268499109</v>
+        <v>2.147541682012656</v>
       </c>
       <c r="F29">
-        <v>2.102243240923257</v>
+        <v>2.074282227710068</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.837833825131213</v>
+        <v>2.233307459809522</v>
       </c>
       <c r="C30">
-        <v>2.178869401163267</v>
+        <v>2.032933102896359</v>
       </c>
       <c r="D30">
-        <v>2.620615433272272</v>
+        <v>2.122798612278649</v>
       </c>
       <c r="E30">
-        <v>2.190270910892691</v>
+        <v>2.155773448705414</v>
       </c>
       <c r="F30">
-        <v>2.107397782260107</v>
+        <v>2.078053426246541</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.874501752564513</v>
+        <v>2.244366479562081</v>
       </c>
       <c r="C31">
-        <v>2.188119441524692</v>
+        <v>2.035029050628419</v>
       </c>
       <c r="D31">
-        <v>2.647938152081252</v>
+        <v>2.12877724333445</v>
       </c>
       <c r="E31">
-        <v>2.199657144665954</v>
+        <v>2.164350052028041</v>
       </c>
       <c r="F31">
-        <v>2.112690101748468</v>
+        <v>2.081931871908065</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.911528579648011</v>
+        <v>2.255641909404908</v>
       </c>
       <c r="C32">
-        <v>2.197694089421619</v>
+        <v>2.03722290913015</v>
       </c>
       <c r="D32">
-        <v>2.675539604129713</v>
+        <v>2.134900621033711</v>
       </c>
       <c r="E32">
-        <v>2.209289489497343</v>
+        <v>2.173298380574023</v>
       </c>
       <c r="F32">
-        <v>2.118126809075093</v>
+        <v>2.085922326013457</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.948911699633573</v>
+        <v>2.267142321661201</v>
       </c>
       <c r="C33">
-        <v>2.207613156597685</v>
+        <v>2.039520048161165</v>
       </c>
       <c r="D33">
-        <v>2.703420112802239</v>
+        <v>2.14117519236229</v>
       </c>
       <c r="E33">
-        <v>2.219179458097601</v>
+        <v>2.182648465845087</v>
       </c>
       <c r="F33">
-        <v>2.123715139220061</v>
+        <v>2.090029893722251</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.986649632928294</v>
+        <v>2.278877455288042</v>
       </c>
       <c r="C34">
-        <v>2.217898190685034</v>
+        <v>2.041926255771622</v>
       </c>
       <c r="D34">
-        <v>2.731581525951581</v>
+        <v>2.147608056796506</v>
       </c>
       <c r="E34">
-        <v>2.229339641281037</v>
+        <v>2.192433938042421</v>
       </c>
       <c r="F34">
-        <v>2.12946301237721</v>
+        <v>2.094260052740216</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.024741963876597</v>
+        <v>2.290858311657364</v>
       </c>
       <c r="C35">
-        <v>2.228572626645668</v>
+        <v>2.044447778664866</v>
       </c>
       <c r="D35">
-        <v>2.760027304214605</v>
+        <v>2.154207045396821</v>
       </c>
       <c r="E35">
-        <v>2.23978379543781</v>
+        <v>2.202692562734995</v>
       </c>
       <c r="F35">
-        <v>2.135379125116787</v>
+        <v>2.098618685789214</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.063189295045556</v>
+        <v>2.303097257757178</v>
       </c>
       <c r="C36">
-        <v>2.239662036713144</v>
+        <v>2.047091363520161</v>
       </c>
       <c r="D36">
-        <v>2.788762639573883</v>
+        <v>2.16098078275599</v>
       </c>
       <c r="E36">
-        <v>2.250526942653684</v>
+        <v>2.213466865822725</v>
       </c>
       <c r="F36">
-        <v>2.141472995531112</v>
+        <v>2.103112115685766</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.10199318843855</v>
+        <v>2.3156081606976</v>
       </c>
       <c r="C37">
-        <v>2.251194292071548</v>
+        <v>2.04986431400837</v>
       </c>
       <c r="D37">
-        <v>2.817794594709204</v>
+        <v>2.167938752575354</v>
       </c>
       <c r="E37">
-        <v>2.261585498607318</v>
+        <v>2.224804871665564</v>
       </c>
       <c r="F37">
-        <v>2.147755096207985</v>
+        <v>2.107747148290977</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.141156114022209</v>
+        <v>2.328406534989429</v>
       </c>
       <c r="C38">
-        <v>2.263199834307591</v>
+        <v>2.052774546766537</v>
       </c>
       <c r="D38">
-        <v>2.847132276529222</v>
+        <v>2.17509141877408</v>
       </c>
       <c r="E38">
-        <v>2.272977403339843</v>
+        <v>2.236760974172518</v>
       </c>
       <c r="F38">
-        <v>2.154236937248644</v>
+        <v>2.112531116921716</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.180681402747194</v>
+        <v>2.34150971576476</v>
       </c>
       <c r="C39">
-        <v>2.275711959782003</v>
+        <v>2.055830653699507</v>
       </c>
       <c r="D39">
-        <v>2.876787049017203</v>
+        <v>2.182450297607009</v>
       </c>
       <c r="E39">
-        <v>2.28472225229386</v>
+        <v>2.249396959562008</v>
       </c>
       <c r="F39">
-        <v>2.160931185006846</v>
+        <v>2.117471930138493</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.220573190973593</v>
+        <v>2.354937053089106</v>
       </c>
       <c r="C40">
-        <v>2.288767037436276</v>
+        <v>2.059041977037233</v>
       </c>
       <c r="D40">
-        <v>2.906772776607548</v>
+        <v>2.190028097932374</v>
       </c>
       <c r="E40">
-        <v>2.296841490639795</v>
+        <v>2.262783204814219</v>
       </c>
       <c r="F40">
-        <v>2.167851849814351</v>
+        <v>2.122578129764548</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.260836375159061</v>
+        <v>2.368710150838761</v>
       </c>
       <c r="C41">
-        <v>2.302404909825497</v>
+        <v>2.062418694406605</v>
       </c>
       <c r="D41">
-        <v>2.937106143761467</v>
+        <v>2.197838878530717</v>
       </c>
       <c r="E41">
-        <v>2.30935859804315</v>
+        <v>2.277000077304642</v>
       </c>
       <c r="F41">
-        <v>2.175014374778424</v>
+        <v>2.127858953971976</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.30147656005236</v>
+        <v>2.382853144019838</v>
       </c>
       <c r="C42">
-        <v>2.316669188843848</v>
+        <v>2.065971917344434</v>
       </c>
       <c r="D42">
-        <v>2.967807017050319</v>
+        <v>2.205898155863929</v>
       </c>
       <c r="E42">
-        <v>2.322299280564478</v>
+        <v>2.292139558184759</v>
       </c>
       <c r="F42">
-        <v>2.182435916594098</v>
+        <v>2.133324407892125</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.342500008726124</v>
+        <v>2.397393017625065</v>
       </c>
       <c r="C43">
-        <v>2.331607592877062</v>
+        <v>2.069713787643283</v>
       </c>
       <c r="D43">
-        <v>2.998898885579055</v>
+        <v>2.214223165025912</v>
       </c>
       <c r="E43">
-        <v>2.33569174120972</v>
+        <v>2.30830710241314</v>
       </c>
       <c r="F43">
-        <v>2.190135519226539</v>
+        <v>2.138985336070264</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.383913593442731</v>
+        <v>2.412359976467899</v>
       </c>
       <c r="C44">
-        <v>2.347272398323213</v>
+        <v>2.073657620304572</v>
       </c>
       <c r="D44">
-        <v>3.030409397236291</v>
+        <v>2.222833046122044</v>
       </c>
       <c r="E44">
-        <v>2.349566951792776</v>
+        <v>2.325623729093557</v>
       </c>
       <c r="F44">
-        <v>2.198134366791012</v>
+        <v>2.144853517873889</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.425724743656231</v>
+        <v>2.427787873815771</v>
       </c>
       <c r="C45">
-        <v>2.363720741432728</v>
+        <v>2.077818043695067</v>
       </c>
       <c r="D45">
-        <v>3.062370961849818</v>
+        <v>2.23174907961933</v>
       </c>
       <c r="E45">
-        <v>2.363958933056221</v>
+        <v>2.344228299845791</v>
       </c>
       <c r="F45">
-        <v>2.206456199673348</v>
+        <v>2.150941764128724</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.467941395206866</v>
+        <v>2.443714746848038</v>
       </c>
       <c r="C46">
-        <v>2.381015066707245</v>
+        <v>2.082211152671398</v>
       </c>
       <c r="D46">
-        <v>3.094821540468338</v>
+        <v>2.240995085844912</v>
       </c>
       <c r="E46">
-        <v>2.378905122608022</v>
+        <v>2.364279877772174</v>
       </c>
       <c r="F46">
-        <v>2.215127461574205</v>
+        <v>2.157264026516906</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.510571934440208</v>
+        <v>2.460183411313004</v>
       </c>
       <c r="C47">
-        <v>2.399223430617173</v>
+        <v>2.086854712546533</v>
       </c>
       <c r="D47">
-        <v>3.127805546301007</v>
+        <v>2.250597664031131</v>
       </c>
       <c r="E47">
-        <v>2.394446772087122</v>
+        <v>2.385959956927254</v>
       </c>
       <c r="F47">
-        <v>2.224177999177892</v>
+        <v>2.163835518561882</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.553625148149031</v>
+        <v>2.477242188923701</v>
       </c>
       <c r="C48">
-        <v>2.418419843679629</v>
+        <v>2.091768385312619</v>
       </c>
       <c r="D48">
-        <v>3.161374937098766</v>
+        <v>2.260586707364441</v>
       </c>
       <c r="E48">
-        <v>2.410629351616326</v>
+        <v>2.409474178897667</v>
       </c>
       <c r="F48">
-        <v>2.233641467512598</v>
+        <v>2.170672860797782</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.597110160087692</v>
+        <v>2.494945682685994</v>
       </c>
       <c r="C49">
-        <v>2.438684443211696</v>
+        <v>2.096973982118931</v>
       </c>
       <c r="D49">
-        <v>3.195590549356258</v>
+        <v>2.270995868676356</v>
       </c>
       <c r="E49">
-        <v>2.427503029143605</v>
+        <v>2.435053084803699</v>
       </c>
       <c r="F49">
-        <v>2.243555964756272</v>
+        <v>2.177794237767838</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.641036374097401</v>
+        <v>2.513355835812603</v>
       </c>
       <c r="C50">
-        <v>2.460103640514083</v>
+        <v>2.102495747376811</v>
       </c>
       <c r="D50">
-        <v>3.230523621129985</v>
+        <v>2.281863239137992</v>
       </c>
       <c r="E50">
-        <v>2.445123232407438</v>
+        <v>2.462950216730004</v>
       </c>
       <c r="F50">
-        <v>2.253964752160944</v>
+        <v>2.185219562763341</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.685413411703845</v>
+        <v>2.532543059334402</v>
       </c>
       <c r="C51">
-        <v>2.482769762893676</v>
+        <v>2.108360744219019</v>
       </c>
       <c r="D51">
-        <v>3.266257678626183</v>
+        <v>2.293232064652921</v>
       </c>
       <c r="E51">
-        <v>2.463551202528015</v>
+        <v>2.493437208130531</v>
       </c>
       <c r="F51">
-        <v>2.264917143715997</v>
+        <v>2.192970684258119</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.730251046933199</v>
+        <v>2.552587609798942</v>
       </c>
       <c r="C52">
-        <v>2.506780636225389</v>
+        <v>2.11459926529472</v>
       </c>
       <c r="D52">
-        <v>3.302890959137736</v>
+        <v>2.305151569738864</v>
       </c>
       <c r="E52">
-        <v>2.48285457076888</v>
+        <v>2.526793711262398</v>
       </c>
       <c r="F52">
-        <v>2.276469617284275</v>
+        <v>2.201071604882205</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.775559137734205</v>
+        <v>2.573580986334104</v>
       </c>
       <c r="C53">
-        <v>2.532238723046824</v>
+        <v>2.121245263544224</v>
       </c>
       <c r="D53">
-        <v>3.340539133413931</v>
+        <v>2.317678019485575</v>
       </c>
       <c r="E53">
-        <v>2.503108085553108</v>
+        <v>2.563290461849949</v>
       </c>
       <c r="F53">
-        <v>2.288687115028489</v>
+        <v>2.209548726324197</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.821347553106186</v>
+        <v>2.59562805997598</v>
       </c>
       <c r="C54">
-        <v>2.559249678445238</v>
+        <v>2.128336982904337</v>
       </c>
       <c r="D54">
-        <v>3.379338476333003</v>
+        <v>2.330876005920657</v>
       </c>
       <c r="E54">
-        <v>2.524394226864397</v>
+        <v>2.603164900985523</v>
       </c>
       <c r="F54">
-        <v>2.301644612761063</v>
+        <v>2.218431098443309</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.867626096002635</v>
+        <v>2.618848990554964</v>
       </c>
       <c r="C55">
-        <v>2.587920301905079</v>
+        <v>2.135917630798913</v>
       </c>
       <c r="D55">
-        <v>3.419449695522218</v>
+        <v>2.34481998774163</v>
       </c>
       <c r="E55">
-        <v>2.546803844576268</v>
+        <v>2.646590842525013</v>
       </c>
       <c r="F55">
-        <v>2.315429028388237</v>
+        <v>2.227750741853531</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.914404422567437</v>
+        <v>2.643381478124322</v>
       </c>
       <c r="C56">
-        <v>2.618355570602181</v>
+        <v>2.144036049690849</v>
       </c>
       <c r="D56">
-        <v>3.461062402546611</v>
+        <v>2.359596138446815</v>
       </c>
       <c r="E56">
-        <v>2.570436789072482</v>
+        <v>2.693647067661309</v>
       </c>
       <c r="F56">
-        <v>2.330141348454937</v>
+        <v>2.237542959563146</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.961691956397737</v>
+        <v>2.669383221971378</v>
       </c>
       <c r="C57">
-        <v>2.650654896711746</v>
+        <v>2.152747847797321</v>
       </c>
       <c r="D57">
-        <v>3.504400043272586</v>
+        <v>2.375304578067401</v>
       </c>
       <c r="E57">
-        <v>2.595402326377619</v>
+        <v>2.744292526968747</v>
       </c>
       <c r="F57">
-        <v>2.345899666237548</v>
+        <v>2.247846672424218</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.009497797655754</v>
+        <v>2.697034411662619</v>
       </c>
       <c r="C58">
-        <v>2.68490793537304</v>
+        <v>2.162116414089418</v>
       </c>
       <c r="D58">
-        <v>3.549725086212569</v>
+        <v>2.392061870715785</v>
       </c>
       <c r="E58">
-        <v>2.621819353011972</v>
+        <v>2.79835871761548</v>
       </c>
       <c r="F58">
-        <v>2.362842241058571</v>
+        <v>2.258704783798</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.057830626741356</v>
+        <v>2.726539932378542</v>
       </c>
       <c r="C59">
-        <v>2.72118961324922</v>
+        <v>2.172214179794546</v>
       </c>
       <c r="D59">
-        <v>3.597343868862685</v>
+        <v>2.410004463920045</v>
       </c>
       <c r="E59">
-        <v>2.649816248959022</v>
+        <v>2.85556212860577</v>
       </c>
       <c r="F59">
-        <v>2.381131161759404</v>
+        <v>2.270164559427259</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.106698602230428</v>
+        <v>2.758130801188061</v>
       </c>
       <c r="C60">
-        <v>2.759554862168417</v>
+        <v>2.183124126378051</v>
       </c>
       <c r="D60">
-        <v>3.647610130664233</v>
+        <v>2.429292159790631</v>
       </c>
       <c r="E60">
-        <v>2.679530231230538</v>
+        <v>2.915536397020433</v>
       </c>
       <c r="F60">
-        <v>2.40095652469123</v>
+        <v>2.282277970212524</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.156109253852514</v>
+        <v>2.792064151608725</v>
       </c>
       <c r="C61">
-        <v>2.80003377652594</v>
+        <v>2.194941546724148</v>
       </c>
       <c r="D61">
-        <v>3.700925077630778</v>
+        <v>2.450112125363983</v>
       </c>
       <c r="E61">
-        <v>2.711105924413907</v>
+        <v>2.977874534552515</v>
       </c>
       <c r="F61">
-        <v>2.422540812147558</v>
+        <v>2.295102018912578</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.206069367891356</v>
+        <v>2.828620083104609</v>
       </c>
       <c r="C62">
-        <v>2.842627682568237</v>
+        <v>2.207776033993214</v>
       </c>
       <c r="D62">
-        <v>3.757730454620535</v>
+        <v>2.47268321872036</v>
       </c>
       <c r="E62">
-        <v>2.744692733262254</v>
+        <v>3.042169452944844</v>
       </c>
       <c r="F62">
-        <v>2.446142847189973</v>
+        <v>2.308699006893258</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.256584868128283</v>
+        <v>2.868094738765436</v>
       </c>
       <c r="C63">
-        <v>2.887306768386011</v>
+        <v>2.221753668351877</v>
       </c>
       <c r="D63">
-        <v>3.818491902247258</v>
+        <v>2.497260059556368</v>
       </c>
       <c r="E63">
-        <v>2.780441317037781</v>
+        <v>3.108044669283317</v>
       </c>
       <c r="F63">
-        <v>2.472060295204116</v>
+        <v>2.323136639534936</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.307660691338594</v>
+        <v>2.910787339302184</v>
       </c>
       <c r="C64">
-        <v>2.93400980710594</v>
+        <v>2.237019333989881</v>
       </c>
       <c r="D64">
-        <v>3.883666364450309</v>
+        <v>2.524135819918583</v>
       </c>
       <c r="E64">
-        <v>2.818498507133515</v>
+        <v>3.175171963123593</v>
       </c>
       <c r="F64">
-        <v>2.500629146092337</v>
+        <v>2.338488021657262</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4.359300657210801</v>
+        <v>2.956979355786606</v>
       </c>
       <c r="C65">
-        <v>2.982646173460839</v>
+        <v>2.253739001276675</v>
       </c>
       <c r="D65">
-        <v>3.953650980676081</v>
+        <v>2.553642278192627</v>
       </c>
       <c r="E65">
-        <v>2.859000582778331</v>
+        <v>3.243277567484197</v>
       </c>
       <c r="F65">
-        <v>2.532216072891245</v>
+        <v>2.354831166030197</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.411507332361169</v>
+        <v>3.006906651025215</v>
       </c>
       <c r="C66">
-        <v>3.033099980200101</v>
+        <v>2.272101647034046</v>
       </c>
       <c r="D66">
-        <v>4.028719293332689</v>
+        <v>2.586143620421056</v>
       </c>
       <c r="E66">
-        <v>2.902065303253407</v>
+        <v>3.312140429232749</v>
       </c>
       <c r="F66">
-        <v>2.567201730027044</v>
+        <v>2.372248256622387</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.464281897019151</v>
+        <v>3.060726363450925</v>
       </c>
       <c r="C67">
-        <v>3.085235939899301</v>
+        <v>2.29232037557476</v>
       </c>
       <c r="D67">
-        <v>4.108956116175329</v>
+        <v>2.622021769388951</v>
       </c>
       <c r="E67">
-        <v>2.947783192074818</v>
+        <v>3.381586153541623</v>
       </c>
       <c r="F67">
-        <v>2.605949223221144</v>
+        <v>2.390824368737337</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.517624009828953</v>
+        <v>3.118485400076248</v>
       </c>
       <c r="C68">
-        <v>3.138906076619548</v>
+        <v>2.314631514384863</v>
       </c>
       <c r="D68">
-        <v>4.194215909282963</v>
+        <v>2.661647830712233</v>
       </c>
       <c r="E68">
-        <v>2.996208795905833</v>
+        <v>3.451479355824387</v>
       </c>
       <c r="F68">
-        <v>2.648756893072929</v>
+        <v>2.410645457178293</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.571531675052902</v>
+        <v>3.180099044547278</v>
       </c>
       <c r="C69">
-        <v>3.193956499570572</v>
+        <v>2.339290490645932</v>
       </c>
       <c r="D69">
-        <v>4.284126224455622</v>
+        <v>2.705338032512898</v>
       </c>
       <c r="E69">
-        <v>3.047353340126123</v>
+        <v>3.52171604417695</v>
       </c>
       <c r="F69">
-        <v>2.69580061213247</v>
+        <v>2.431795520153131</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.626001117666056</v>
+        <v>3.245350119163998</v>
       </c>
       <c r="C70">
-        <v>3.250233611157647</v>
+        <v>2.366563534586644</v>
       </c>
       <c r="D70">
-        <v>4.378141050378666</v>
+        <v>2.753297811980036</v>
       </c>
       <c r="E70">
-        <v>3.101179887477035</v>
+        <v>3.592216830376407</v>
       </c>
       <c r="F70">
-        <v>2.74707986363375</v>
+        <v>2.454352917741837</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.681026671533782</v>
+        <v>3.313908718063442</v>
       </c>
       <c r="C71">
-        <v>3.307589167969756</v>
+        <v>2.396712349529089</v>
       </c>
       <c r="D71">
-        <v>4.475625603442361</v>
+        <v>2.805566133262102</v>
       </c>
       <c r="E71">
-        <v>3.157602602689641</v>
+        <v>3.662921279747962</v>
       </c>
       <c r="F71">
-        <v>2.802391099547348</v>
+        <v>2.478385912871443</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.736600685681961</v>
+        <v>3.385370265858854</v>
       </c>
       <c r="C72">
-        <v>3.365884057861535</v>
+        <v>2.429971496265864</v>
       </c>
       <c r="D72">
-        <v>4.575941831130208</v>
+        <v>2.861982230783255</v>
       </c>
       <c r="E72">
-        <v>3.216490258066593</v>
+        <v>3.73378354383745</v>
       </c>
       <c r="F72">
-        <v>2.861344432197305</v>
+        <v>2.503947666537002</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.792713453229275</v>
+        <v>3.45930023791038</v>
       </c>
       <c r="C73">
-        <v>3.424990580464498</v>
+        <v>2.466518331820066</v>
       </c>
       <c r="D73">
-        <v>4.678510672992425</v>
+        <v>2.922192679170505</v>
       </c>
       <c r="E73">
-        <v>3.277673389457711</v>
+        <v>3.804768698236529</v>
       </c>
       <c r="F73">
-        <v>2.92342184832977</v>
+        <v>2.531071148721884</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.8493531705517</v>
+        <v>3.535273924019759</v>
       </c>
       <c r="C74">
-        <v>3.484793828273033</v>
+        <v>2.506441487735177</v>
       </c>
       <c r="D74">
-        <v>4.782843508538494</v>
+        <v>2.985701503552576</v>
       </c>
       <c r="E74">
-        <v>3.340954822649422</v>
+        <v>3.875850108948392</v>
       </c>
       <c r="F74">
-        <v>2.9880562075897</v>
+        <v>2.559764608483647</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.906505931002795</v>
+        <v>3.612904538542205</v>
       </c>
       <c r="C75">
-        <v>3.545191965141511</v>
+        <v>2.549713827760205</v>
       </c>
       <c r="D75">
-        <v>4.888548268538027</v>
+        <v>3.051946244584373</v>
       </c>
       <c r="E75">
-        <v>3.406121266262217</v>
+        <v>3.947007384358566</v>
       </c>
       <c r="F75">
-        <v>3.054702147788777</v>
+        <v>2.590008411810243</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.964155756900127</v>
+        <v>3.691857891568238</v>
       </c>
       <c r="C76">
-        <v>3.606095817039304</v>
+        <v>2.596180654968406</v>
       </c>
       <c r="D76">
-        <v>4.995320358342732</v>
+        <v>3.120371656256063</v>
       </c>
       <c r="E76">
-        <v>3.47295460496687</v>
+        <v>4.018224816095371</v>
       </c>
       <c r="F76">
-        <v>3.122882114946258</v>
+        <v>2.621754316376252</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.022284669872336</v>
+        <v>3.771856178005139</v>
       </c>
       <c r="C77">
-        <v>3.667428082410912</v>
+        <v>2.645569556258505</v>
       </c>
       <c r="D77">
-        <v>5.102927283022548</v>
+        <v>3.190481460711504</v>
       </c>
       <c r="E77">
-        <v>3.541241584118019</v>
+        <v>4.0894902280065</v>
       </c>
       <c r="F77">
-        <v>3.19220513362263</v>
+        <v>2.654926812717764</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.080872807160021</v>
+        <v>3.852674668181023</v>
       </c>
       <c r="C78">
-        <v>3.729122253129755</v>
+        <v>2.697520918024487</v>
       </c>
       <c r="D78">
-        <v>5.211192592427935</v>
+        <v>3.261862765939535</v>
       </c>
       <c r="E78">
-        <v>3.610781114393113</v>
+        <v>4.160794100895558</v>
       </c>
       <c r="F78">
-        <v>3.262365951089143</v>
+        <v>2.689427001056531</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.139898565802555</v>
+        <v>3.934134842583368</v>
       </c>
       <c r="C79">
-        <v>3.791121435635784</v>
+        <v>2.751630398904808</v>
       </c>
       <c r="D79">
-        <v>5.319981846146608</v>
+        <v>3.334189074024585</v>
       </c>
       <c r="E79">
-        <v>3.681389001937593</v>
+        <v>4.232128921381425</v>
       </c>
       <c r="F79">
-        <v>3.333133781784453</v>
+        <v>2.725138601564486</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.199338782083418</v>
+        <v>4.01609644076415</v>
       </c>
       <c r="C80">
-        <v>3.853377172581756</v>
+        <v>2.807491072791064</v>
       </c>
       <c r="D80">
-        <v>5.429191436649856</v>
+        <v>3.407211027572667</v>
       </c>
       <c r="E80">
-        <v>3.752900491365412</v>
+        <v>4.303488695786071</v>
       </c>
       <c r="F80">
-        <v>3.404337713476101</v>
+        <v>2.761934764410185</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.259168938614307</v>
+        <v>4.098449854296963</v>
       </c>
       <c r="C81">
-        <v>3.915848314292142</v>
+        <v>2.86472577516921</v>
       </c>
       <c r="D81">
-        <v>5.538740161076102</v>
+        <v>3.480742419968132</v>
       </c>
       <c r="E81">
-        <v>3.825170914613948</v>
+        <v>4.374868586104311</v>
       </c>
       <c r="F81">
-        <v>3.475852713023628</v>
+        <v>2.799684959085986</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.319363385060701</v>
+        <v>4.181109514296658</v>
       </c>
       <c r="C82">
-        <v>3.97849998636243</v>
+        <v>2.923005942551484</v>
       </c>
       <c r="D82">
-        <v>5.648563074827244</v>
+        <v>3.554646057634127</v>
       </c>
       <c r="E82">
-        <v>3.898075085262076</v>
+        <v>4.446264639235144</v>
       </c>
       <c r="F82">
-        <v>3.547587865876309</v>
+        <v>2.838261001798241</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.37989557007378</v>
+        <v>4.264008456518197</v>
       </c>
       <c r="C83">
-        <v>4.04130266645774</v>
+        <v>2.982058291406275</v>
       </c>
       <c r="D83">
-        <v>5.758607092303738</v>
+        <v>3.628821531821179</v>
       </c>
       <c r="E83">
-        <v>3.971505873681441</v>
+        <v>4.517673584352979</v>
       </c>
       <c r="F83">
-        <v>3.619477173999703</v>
+        <v>2.877541768940749</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.440738274558537</v>
+        <v>4.347094007312025</v>
       </c>
       <c r="C84">
-        <v>4.104231374398388</v>
+        <v>3.041663086054947</v>
       </c>
       <c r="D84">
-        <v>5.868827868174682</v>
+        <v>3.703195481467461</v>
       </c>
       <c r="E84">
-        <v>4.045372363573343</v>
+        <v>4.589092681300613</v>
       </c>
       <c r="F84">
-        <v>3.69147264822338</v>
+        <v>2.917416291901987</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.501863838776321</v>
+        <v>4.430324432946237</v>
       </c>
       <c r="C85">
-        <v>4.167264971491476</v>
+        <v>3.101647852781687</v>
       </c>
       <c r="D85">
-        <v>5.97918759379518</v>
+        <v>3.77771420079964</v>
       </c>
       <c r="E85">
-        <v>4.119597856616169</v>
+        <v>4.66051960657038</v>
       </c>
       <c r="F85">
-        <v>3.763539255634826</v>
+        <v>2.957785512623224</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.563244379035494</v>
+        <v>4.51366637234304</v>
       </c>
       <c r="C86">
-        <v>4.230385560225823</v>
+        <v>3.16187944082488</v>
       </c>
       <c r="D86">
-        <v>6.089653436697376</v>
+        <v>3.852338180017236</v>
       </c>
       <c r="E86">
-        <v>4.194117909722602</v>
+        <v>4.731952367197667</v>
       </c>
       <c r="F86">
-        <v>3.83565127127339</v>
+        <v>2.998562780287148</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.624851988837531</v>
+        <v>4.597092888341427</v>
       </c>
       <c r="C87">
-        <v>4.293577973895681</v>
+        <v>3.222256171675179</v>
       </c>
       <c r="D87">
-        <v>6.200196431187367</v>
+        <v>3.927038152533225</v>
       </c>
       <c r="E87">
-        <v>4.268878509990791</v>
+        <v>4.803389235307412</v>
       </c>
       <c r="F87">
-        <v>3.907789667841386</v>
+        <v>3.039673542217693</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.686658921451262</v>
+        <v>4.680581991924363</v>
       </c>
       <c r="C88">
-        <v>4.356829344848566</v>
+        <v>3.282700917052706</v>
       </c>
       <c r="D88">
-        <v>6.310790685052627</v>
+        <v>4.001792237980323</v>
       </c>
       <c r="E88">
-        <v>4.343834438267453</v>
+        <v>4.874828697959877</v>
       </c>
       <c r="F88">
-        <v>3.979940260189164</v>
+        <v>3.081054491431666</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.748637752805926</v>
+        <v>4.764115508090137</v>
       </c>
       <c r="C89">
-        <v>4.420128741119243</v>
+        <v>3.343155383662778</v>
       </c>
       <c r="D89">
-        <v>6.42141278745106</v>
+        <v>4.076583876823419</v>
       </c>
       <c r="E89">
-        <v>4.418947837701794</v>
+        <v>4.946269418465995</v>
       </c>
       <c r="F89">
-        <v>4.052092361440248</v>
+        <v>3.122652396377673</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.810761523360363</v>
+        <v>4.847678241609976</v>
       </c>
       <c r="C90">
-        <v>4.48346686072796</v>
+        <v>3.403575577959192</v>
       </c>
       <c r="D90">
-        <v>6.532041390704121</v>
+        <v>4.151400422396113</v>
       </c>
       <c r="E90">
-        <v>4.494186995294186</v>
+        <v>5.0177102062864</v>
       </c>
       <c r="F90">
-        <v>4.124237835489014</v>
+        <v>3.164422847824634</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.873003859412341</v>
+        <v>4.931257359769646</v>
       </c>
       <c r="C91">
-        <v>4.546835775394748</v>
+        <v>3.463928297334873</v>
       </c>
       <c r="D91">
-        <v>6.642656901453324</v>
+        <v>4.226232083562609</v>
       </c>
       <c r="E91">
-        <v>4.569525306978438</v>
+        <v>5.089149993554033</v>
       </c>
       <c r="F91">
-        <v>4.196370431771149</v>
+        <v>3.206329002188026</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.935339074820875</v>
+        <v>5.014841884173737</v>
       </c>
       <c r="C92">
-        <v>4.61022871666872</v>
+        <v>3.524188464617105</v>
       </c>
       <c r="D92">
-        <v>6.753241243305051</v>
+        <v>4.301071157236819</v>
       </c>
       <c r="E92">
-        <v>4.644940407922011</v>
+        <v>5.160587816063513</v>
       </c>
       <c r="F92">
-        <v>4.268485298169561</v>
+        <v>3.248340417750208</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.9977422537982</v>
+        <v>5.09842231866045</v>
       </c>
       <c r="C93">
-        <v>4.673639894886421</v>
+        <v>3.584337111034222</v>
       </c>
       <c r="D93">
-        <v>6.863777662066735</v>
+        <v>4.375911501542806</v>
       </c>
       <c r="E93">
-        <v>4.720413452489448</v>
+        <v>5.232022798206083</v>
       </c>
       <c r="F93">
-        <v>4.340578610876661</v>
+        <v>3.290432009426026</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.060189315990899</v>
+        <v>5.181990372278181</v>
       </c>
       <c r="C94">
-        <v>4.737064346003184</v>
+        <v>3.644359842674989</v>
       </c>
       <c r="D94">
-        <v>6.974250581807115</v>
+        <v>4.450748145004587</v>
       </c>
       <c r="E94">
-        <v>4.795928517144768</v>
+        <v>5.303454141329052</v>
       </c>
       <c r="F94">
-        <v>4.412647327288879</v>
+        <v>3.332583144462465</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6.122657067761489</v>
+        <v>5.265538737403962</v>
       </c>
       <c r="C95">
-        <v>4.800497808481551</v>
+        <v>3.704245711049037</v>
       </c>
       <c r="D95">
-        <v>7.084645492767739</v>
+        <v>4.525577001249069</v>
       </c>
       <c r="E95">
-        <v>4.871472106637573</v>
+        <v>5.374881114060455</v>
       </c>
       <c r="F95">
-        <v>4.484688998699212</v>
+        <v>3.374776862748215</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6.185123241019554</v>
+        <v>5.34906091897595</v>
       </c>
       <c r="C96">
-        <v>4.863936618430676</v>
+        <v>3.763986417455562</v>
       </c>
       <c r="D96">
-        <v>7.194948855037996</v>
+        <v>4.600394660378717</v>
       </c>
       <c r="E96">
-        <v>4.947032747417821</v>
+        <v>5.446303044018558</v>
       </c>
       <c r="F96">
-        <v>4.556701630839197</v>
+        <v>3.416999236950235</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6.247566514360432</v>
+        <v>5.432551101061114</v>
       </c>
       <c r="C97">
-        <v>4.927377618873715</v>
+        <v>3.823575652917753</v>
       </c>
       <c r="D97">
-        <v>7.305148017759465</v>
+        <v>4.675198238838645</v>
       </c>
       <c r="E97">
-        <v>5.022600652504898</v>
+        <v>5.517719311092431</v>
       </c>
       <c r="F97">
-        <v>4.628683581934951</v>
+        <v>3.459238818630677</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6.309966527092942</v>
+        <v>5.516004042738098</v>
       </c>
       <c r="C98">
-        <v>4.990818084039944</v>
+        <v>3.883008609562927</v>
       </c>
       <c r="D98">
-        <v>7.415231152065229</v>
+        <v>4.749985264214468</v>
       </c>
       <c r="E98">
-        <v>5.0981674457674</v>
+        <v>5.58912934199818</v>
       </c>
       <c r="F98">
-        <v>4.700633488052421</v>
+        <v>3.501486174033129</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6.372303884144504</v>
+        <v>5.599414995045109</v>
       </c>
       <c r="C99">
-        <v>5.054255656872669</v>
+        <v>3.942281631342142</v>
       </c>
       <c r="D99">
-        <v>7.525187193673476</v>
+        <v>4.824753591517488</v>
       </c>
       <c r="E99">
-        <v>5.173725934773793</v>
+        <v>5.660532605648423</v>
       </c>
       <c r="F99">
-        <v>4.772550205629368</v>
+        <v>3.543733528351648</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6.434560153677478</v>
+        <v>5.6827796333593</v>
       </c>
       <c r="C100">
-        <v>5.117688296561707</v>
+        <v>4.001391954593926</v>
       </c>
       <c r="D100">
-        <v>7.635005790748487</v>
+        <v>4.899501339492137</v>
       </c>
       <c r="E100">
-        <v>5.249269923486197</v>
+        <v>5.731928609141892</v>
       </c>
       <c r="F100">
-        <v>4.844432768417145</v>
+        <v>3.585974478104949</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6.496717857637522</v>
+        <v>5.766094004233372</v>
       </c>
       <c r="C101">
-        <v>5.181114233317773</v>
+        <v>4.060337500169847</v>
       </c>
       <c r="D101">
-        <v>7.744677258023706</v>
+        <v>4.974226842880237</v>
       </c>
       <c r="E101">
-        <v>5.32479405378255</v>
+        <v>5.803316894325558</v>
       </c>
       <c r="F101">
-        <v>4.916280354986731</v>
+        <v>3.628203743607175</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6.558760456654221</v>
+        <v>5.849354481458068</v>
       </c>
       <c r="C102">
-        <v>5.244531930229916</v>
+        <v>4.119116715673719</v>
       </c>
       <c r="D102">
-        <v>7.854192535855207</v>
+        <v>5.048928615344649</v>
       </c>
       <c r="E102">
-        <v>5.400293677958317</v>
+        <v>5.874697034867001</v>
       </c>
       <c r="F102">
-        <v>4.988092263544853</v>
+        <v>3.670416959523108</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6.620672330581682</v>
+        <v>5.932557729590193</v>
       </c>
       <c r="C103">
-        <v>5.307940051167903</v>
+        <v>4.177728460582089</v>
       </c>
       <c r="D103">
-        <v>7.963543152794604</v>
+        <v>5.12360531979169</v>
       </c>
       <c r="E103">
-        <v>5.475764755333107</v>
+        <v>5.946068633696784</v>
       </c>
       <c r="F103">
-        <v>5.059867892666033</v>
+        <v>3.712610506452899</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6.682438755691497</v>
+        <v>6.015700674559648</v>
       </c>
       <c r="C104">
-        <v>5.371337433407758</v>
+        <v>4.236171917111586</v>
       </c>
       <c r="D104">
-        <v>8.072721190986108</v>
+        <v>5.198255746651855</v>
       </c>
       <c r="E104">
-        <v>5.551203762759664</v>
+        <v>6.017431320738556</v>
       </c>
       <c r="F104">
-        <v>5.131606725462561</v>
+        <v>3.754781378820628</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6.74404587916488</v>
+        <v>6.098780477627866</v>
       </c>
       <c r="C105">
-        <v>5.434723064471227</v>
+        <v>4.29444652055038</v>
       </c>
       <c r="D105">
-        <v>8.181719254643857</v>
+        <v>5.272878797599859</v>
       </c>
       <c r="E105">
-        <v>5.626607618803331</v>
+        <v>6.088784750904675</v>
       </c>
       <c r="F105">
-        <v>5.203308317262885</v>
+        <v>3.79692707936135</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6.805480691393373</v>
+        <v>6.181794513150918</v>
       </c>
       <c r="C106">
-        <v>5.498096062193542</v>
+        <v>4.352551906023474</v>
       </c>
       <c r="D106">
-        <v>8.290530440301742</v>
+        <v>5.347473471628447</v>
       </c>
       <c r="E106">
-        <v>5.701973621544928</v>
+        <v>6.160128602319717</v>
       </c>
       <c r="F106">
-        <v>5.274972286513716</v>
+        <v>3.839045531718931</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6.866730996648969</v>
+        <v>6.264740350888339</v>
       </c>
       <c r="C107">
-        <v>5.561455657792436</v>
+        <v>4.410487866628948</v>
       </c>
       <c r="D107">
-        <v>8.399148308995681</v>
+        <v>5.422038853031978</v>
       </c>
       <c r="E107">
-        <v>5.777299397410101</v>
+        <v>6.231462574719988</v>
       </c>
       <c r="F107">
-        <v>5.346598307355936</v>
+        <v>3.881135007015553</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6.927785382698614</v>
+        <v>6.347615740711098</v>
       </c>
       <c r="C108">
-        <v>5.624801181395512</v>
+        <v>4.468254316689146</v>
       </c>
       <c r="D108">
-        <v>8.507566860576199</v>
+        <v>5.496574101817752</v>
       </c>
       <c r="E108">
-        <v>5.852582857733149</v>
+        <v>6.302786388014438</v>
       </c>
       <c r="F108">
-        <v>5.418186103025374</v>
+        <v>3.923194063262146</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6.988633189816296</v>
+        <v>6.430418598583194</v>
       </c>
       <c r="C109">
-        <v>5.688132049503617</v>
+        <v>4.52585127065741</v>
       </c>
       <c r="D109">
-        <v>8.615780509794437</v>
+        <v>5.571078446352691</v>
       </c>
       <c r="E109">
-        <v>5.927822162687589</v>
+        <v>6.374099780970868</v>
       </c>
       <c r="F109">
-        <v>5.489735440216217</v>
+        <v>3.965221496636516</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7.049264479503145</v>
+        <v>6.513146993916332</v>
       </c>
       <c r="C110">
-        <v>5.751447754347094</v>
+        <v>4.583278827112853</v>
       </c>
       <c r="D110">
-        <v>8.723784063815485</v>
+        <v>5.645551177240838</v>
       </c>
       <c r="E110">
-        <v>6.00301568779062</v>
+        <v>6.445402510041311</v>
       </c>
       <c r="F110">
-        <v>5.561246124605188</v>
+        <v>4.007216302110687</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7.109670003171569</v>
+        <v>6.595799138318294</v>
       </c>
       <c r="C111">
-        <v>5.814747854811306</v>
+        <v>4.6405371508653</v>
       </c>
       <c r="D111">
-        <v>8.831572700691025</v>
+        <v>5.719991642100077</v>
       </c>
       <c r="E111">
-        <v>6.078161997690285</v>
+        <v>6.516694348239334</v>
       </c>
       <c r="F111">
-        <v>5.63271799725545</v>
+        <v>4.049177641220905</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.16984117103098</v>
+        <v>6.678373375861763</v>
       </c>
       <c r="C112">
-        <v>5.878031968265298</v>
+        <v>4.697626459605554</v>
       </c>
       <c r="D112">
-        <v>8.939141949066034</v>
+        <v>5.794399240422295</v>
       </c>
       <c r="E112">
-        <v>6.153259824639108</v>
+        <v>6.587975084129374</v>
       </c>
       <c r="F112">
-        <v>5.704150931510357</v>
+        <v>4.091104815276397</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7.229770021403869</v>
+        <v>6.760868174393869</v>
       </c>
       <c r="C113">
-        <v>5.941299763572313</v>
+        <v>4.754547013686631</v>
       </c>
       <c r="D113">
-        <v>9.046487668859983</v>
+        <v>5.868773420096586</v>
       </c>
       <c r="E113">
-        <v>6.228308043472587</v>
+        <v>6.659244520906514</v>
       </c>
       <c r="F113">
-        <v>5.775544830362113</v>
+        <v>4.132997242582436</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7.289449190637671</v>
+        <v>6.843282117599704</v>
       </c>
       <c r="C114">
-        <v>6.004550955252274</v>
+        <v>4.811299107972893</v>
       </c>
       <c r="D114">
-        <v>9.153606033564131</v>
+        <v>5.943113672476551</v>
       </c>
       <c r="E114">
-        <v>6.303305665102201</v>
+        <v>6.730502475546197</v>
       </c>
       <c r="F114">
-        <v>5.846899623565998</v>
+        <v>4.174854439979273</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7.348871883724274</v>
+        <v>6.925613898117327</v>
       </c>
       <c r="C115">
-        <v>6.067785297629921</v>
+        <v>4.867883065996167</v>
       </c>
       <c r="D115">
-        <v>9.260493513126125</v>
+        <v>6.0174195306124</v>
       </c>
       <c r="E115">
-        <v>6.37825181687711</v>
+        <v>6.801748777989255</v>
       </c>
       <c r="F115">
-        <v>5.918215265823394</v>
+        <v>4.216676007726449</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7.408031845790839</v>
+        <v>7.007862309773421</v>
       </c>
       <c r="C116">
-        <v>6.131002581613577</v>
+        <v>4.924299236053587</v>
       </c>
       <c r="D116">
-        <v>9.367146857915287</v>
+        <v>6.09169056654134</v>
       </c>
       <c r="E116">
-        <v>6.453145730252805</v>
+        <v>6.872983270451838</v>
       </c>
       <c r="F116">
-        <v>5.989491734715767</v>
+        <v>4.258461616935127</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7.466923334457377</v>
+        <v>7.090026243250041</v>
       </c>
       <c r="C117">
-        <v>6.194202630225335</v>
+        <v>4.980547986606233</v>
       </c>
       <c r="D117">
-        <v>9.473563084468786</v>
+        <v>6.165926387729441</v>
       </c>
       <c r="E117">
-        <v>6.527986729512454</v>
+        <v>6.944205806687903</v>
       </c>
       <c r="F117">
-        <v>6.060729028642916</v>
+        <v>4.300210999018434</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7.525541093161748</v>
+        <v>7.172104676435197</v>
       </c>
       <c r="C118">
-        <v>6.25738529499915</v>
+        <v>5.036629702761672</v>
       </c>
       <c r="D118">
-        <v>9.579739458295673</v>
+        <v>6.240126636167444</v>
       </c>
       <c r="E118">
-        <v>6.602774222561025</v>
+        <v>7.015416251333754</v>
       </c>
       <c r="F118">
-        <v>6.131927166365897</v>
+        <v>4.341923937130991</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7.583880324189204</v>
+        <v>7.254096674291071</v>
       </c>
       <c r="C119">
-        <v>6.320550452900981</v>
+        <v>5.092544783502761</v>
       </c>
       <c r="D119">
-        <v>9.685673484805795</v>
+        <v>6.314290985329197</v>
       </c>
       <c r="E119">
-        <v>6.677507692876897</v>
+        <v>7.086614479311327</v>
       </c>
       <c r="F119">
-        <v>6.20308618457806</v>
+        <v>4.383600258830893</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7.641936665357639</v>
+        <v>7.336001379112181</v>
       </c>
       <c r="C120">
-        <v>6.38369800357125</v>
+        <v>5.148293639489813</v>
       </c>
       <c r="D120">
-        <v>9.7913628885506</v>
+        <v>6.38841913827868</v>
       </c>
       <c r="E120">
-        <v>6.752186691612454</v>
+        <v>7.157800375244444</v>
       </c>
       <c r="F120">
-        <v>6.274206137318818</v>
+        <v>4.425239829445292</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7.69970616590771</v>
+        <v>7.417818010218728</v>
       </c>
       <c r="C121">
-        <v>6.446827867183611</v>
+        <v>5.203876691175496</v>
       </c>
       <c r="D121">
-        <v>9.896805610614688</v>
+        <v>6.462510826010098</v>
       </c>
       <c r="E121">
-        <v>6.826810832323891</v>
+        <v>7.228973832951694</v>
       </c>
       <c r="F121">
-        <v>6.345287094482607</v>
+        <v>4.466842545104567</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7.75718526246502</v>
+        <v>7.499545857290955</v>
       </c>
       <c r="C122">
-        <v>6.509939982334177</v>
+        <v>5.259294367607521</v>
       </c>
       <c r="D122">
-        <v>10.00199978752917</v>
+        <v>6.536565805913985</v>
       </c>
       <c r="E122">
-        <v>6.90137978524975</v>
+        <v>7.300134754929058</v>
       </c>
       <c r="F122">
-        <v>6.416329140651478</v>
+        <v>4.508408333027552</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7.814370759657073</v>
+        <v>7.581184276788626</v>
       </c>
       <c r="C123">
-        <v>6.573034304236947</v>
+        <v>5.314547105019814</v>
       </c>
       <c r="D123">
-        <v>10.10694374991067</v>
+        <v>6.610583859884374</v>
       </c>
       <c r="E123">
-        <v>6.975893271944903</v>
+        <v>7.371283051878545</v>
       </c>
       <c r="F123">
-        <v>6.487332374196845</v>
+        <v>4.549937140967976</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7.871259808070829</v>
+        <v>7.662732688656869</v>
       </c>
       <c r="C124">
-        <v>6.636110803026729</v>
+        <v>5.369635345734013</v>
       </c>
       <c r="D124">
-        <v>10.21163600468607</v>
+        <v>6.684564793426274</v>
       </c>
       <c r="E124">
-        <v>7.050351061437026</v>
+        <v>7.442418642300121</v>
       </c>
       <c r="F124">
-        <v>6.558296906433759</v>
+        <v>4.591428941999874</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7.927849883609364</v>
+        <v>7.744190571613913</v>
       </c>
       <c r="C125">
-        <v>6.699169462523219</v>
+        <v>5.424559537261297</v>
       </c>
       <c r="D125">
-        <v>10.31607522967939</v>
+        <v>6.758508434066304</v>
       </c>
       <c r="E125">
-        <v>7.124752965066424</v>
+        <v>7.513541451968612</v>
       </c>
       <c r="F125">
-        <v>6.629222860511043</v>
+        <v>4.632883726876416</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7.984138769734588</v>
+        <v>7.825557461105709</v>
       </c>
       <c r="C126">
-        <v>6.762210278960715</v>
+        <v>5.479320131556763</v>
       </c>
       <c r="D126">
-        <v>10.42026026203991</v>
+        <v>6.832414630039728</v>
       </c>
       <c r="E126">
-        <v>7.199098833531277</v>
+        <v>7.584651413698698</v>
       </c>
       <c r="F126">
-        <v>6.700110370974531</v>
+        <v>4.674301503220119</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>8.040124539580795</v>
+        <v>7.906832945035417</v>
       </c>
       <c r="C127">
-        <v>6.825233259052564</v>
+        <v>5.533917584363349</v>
       </c>
       <c r="D127">
-        <v>10.52419008846588</v>
+        <v>6.906283249278807</v>
       </c>
       <c r="E127">
-        <v>7.273388554356607</v>
+        <v>7.655748466705903</v>
       </c>
       <c r="F127">
-        <v>6.770959582834574</v>
+        <v>4.715682293667359</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>8.095805537724351</v>
+        <v>7.988016661579652</v>
       </c>
       <c r="C128">
-        <v>6.888238420727673</v>
+        <v>5.588352354765747</v>
       </c>
       <c r="D128">
-        <v>10.62786384035856</v>
+        <v>6.980114178242988</v>
       </c>
       <c r="E128">
-        <v>7.34762204450629</v>
+        <v>7.726832556547006</v>
       </c>
       <c r="F128">
-        <v>6.841770650844944</v>
+        <v>4.757026133270669</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>8.151180365181478</v>
+        <v>8.06910829647825</v>
       </c>
       <c r="C129">
-        <v>6.951225788909024</v>
+        <v>5.642624904602804</v>
       </c>
       <c r="D129">
-        <v>10.73128078057087</v>
+        <v>7.053907320764732</v>
       </c>
       <c r="E129">
-        <v>7.421799257651248</v>
+        <v>7.797903634562005</v>
       </c>
       <c r="F129">
-        <v>6.912543738979299</v>
+        <v>4.798333068457876</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>8.206247863921178</v>
+        <v>8.150107579584297</v>
       </c>
       <c r="C130">
-        <v>7.014195399516578</v>
+        <v>5.696735698175575</v>
       </c>
       <c r="D130">
-        <v>10.83444030195866</v>
+        <v>7.127662597274492</v>
       </c>
       <c r="E130">
-        <v>7.495920168129714</v>
+        <v>7.868961657689957</v>
       </c>
       <c r="F130">
-        <v>6.98327901971652</v>
+        <v>4.83960315620823</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8.261007101655002</v>
+        <v>8.231014283654263</v>
       </c>
       <c r="C131">
-        <v>7.077147293087672</v>
+        <v>5.750685201525775</v>
       </c>
       <c r="D131">
-        <v>10.93734191450789</v>
+        <v>7.201379943807408</v>
       </c>
       <c r="E131">
-        <v>7.56998478462785</v>
+        <v>7.940006588176002</v>
       </c>
       <c r="F131">
-        <v>7.053976673482007</v>
+        <v>4.880836461863472</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>8.315457358368459</v>
+        <v>8.311828220767721</v>
       </c>
       <c r="C132">
-        <v>7.140081519958794</v>
+        <v>5.804473882775175</v>
       </c>
       <c r="D132">
-        <v>11.03998524376417</v>
+        <v>7.275059311055457</v>
       </c>
       <c r="E132">
-        <v>7.643993133594982</v>
+        <v>8.011038393201391</v>
       </c>
       <c r="F132">
-        <v>7.12463688819548</v>
+        <v>4.922033059801876</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>8.369598113666299</v>
+        <v>8.39254924105664</v>
       </c>
       <c r="C133">
-        <v>7.202998134668916</v>
+        <v>5.858102210972888</v>
       </c>
       <c r="D133">
-        <v>11.1423700202581</v>
+        <v>7.348700663709836</v>
       </c>
       <c r="E133">
-        <v>7.717945269108688</v>
+        <v>8.082057044742376</v>
       </c>
       <c r="F133">
-        <v>7.195259858666229</v>
+        <v>4.963193031441679</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>8.423429035712381</v>
+        <v>8.473177230001683</v>
       </c>
       <c r="C134">
-        <v>7.265897199106811</v>
+        <v>5.911570656848749</v>
       </c>
       <c r="D134">
-        <v>11.24449607647237</v>
+        <v>7.422303979745284</v>
       </c>
       <c r="E134">
-        <v>7.791841262991405</v>
+        <v>8.153062519184289</v>
       </c>
       <c r="F134">
-        <v>7.265845786209492</v>
+        <v>5.004316465087951</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>8.47694996470009</v>
+        <v>8.553712106642855</v>
       </c>
       <c r="C135">
-        <v>7.328778779765293</v>
+        <v>5.964879691775582</v>
       </c>
       <c r="D135">
-        <v>11.34636333922017</v>
+        <v>7.495869249286724</v>
       </c>
       <c r="E135">
-        <v>7.865681208485785</v>
+        <v>8.224054797188</v>
       </c>
       <c r="F135">
-        <v>7.336394878201314</v>
+        <v>5.045403455142083</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>8.530160908410597</v>
+        <v>8.634153822010319</v>
       </c>
       <c r="C136">
-        <v>7.391642948364152</v>
+        <v>6.018029788165863</v>
       </c>
       <c r="D136">
-        <v>11.44797182483662</v>
+        <v>7.569396474419708</v>
       </c>
       <c r="E136">
-        <v>7.939465215211409</v>
+        <v>8.295033863356226</v>
       </c>
       <c r="F136">
-        <v>7.406907347602412</v>
+        <v>5.086454101358361</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>8.583062024711996</v>
+        <v>8.714502356640326</v>
       </c>
       <c r="C137">
-        <v>7.454489780937012</v>
+        <v>6.071021418912395</v>
       </c>
       <c r="D137">
-        <v>11.54932163463517</v>
+        <v>7.642885668165322</v>
       </c>
       <c r="E137">
-        <v>8.013193410509842</v>
+        <v>8.365999706107447</v>
       </c>
       <c r="F137">
-        <v>7.477383412646471</v>
+        <v>5.127468508561741</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>8.635653614821956</v>
+        <v>8.794757719829304</v>
       </c>
       <c r="C138">
-        <v>7.517319357645223</v>
+        <v>6.123855057406013</v>
       </c>
       <c r="D138">
-        <v>11.65041294820832</v>
+        <v>7.71633685371389</v>
       </c>
       <c r="E138">
-        <v>8.086865936173888</v>
+        <v>8.436952317382435</v>
       </c>
       <c r="F138">
-        <v>7.547823296539393</v>
+        <v>5.16844678613887</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>8.68793611881671</v>
+        <v>8.87491994722085</v>
       </c>
       <c r="C139">
-        <v>7.580131762355331</v>
+        <v>6.17653117732467</v>
       </c>
       <c r="D139">
-        <v>11.7512460215325</v>
+        <v>7.789750064868836</v>
       </c>
       <c r="E139">
-        <v>8.160482948863304</v>
+        <v>8.507891692587593</v>
       </c>
       <c r="F139">
-        <v>7.618227226831268</v>
+        <v>5.209389047532399</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>8.739910094345852</v>
+        <v>8.954989099919946</v>
       </c>
       <c r="C140">
-        <v>7.642927082279151</v>
+        <v>6.229050252479776</v>
       </c>
       <c r="D140">
-        <v>11.85182117946688</v>
+        <v>7.863125343731717</v>
       </c>
       <c r="E140">
-        <v>8.234044618706303</v>
+        <v>8.578817830240959</v>
       </c>
       <c r="F140">
-        <v>7.688595435462252</v>
+        <v>5.250295410173268</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>8.791576226954247</v>
+        <v>9.034965262748381</v>
       </c>
       <c r="C141">
-        <v>7.70570540801182</v>
+        <v>6.281412756806485</v>
       </c>
       <c r="D141">
-        <v>11.95213881478483</v>
+        <v>7.936462742363511</v>
       </c>
       <c r="E141">
-        <v>8.307551127801718</v>
+        <v>8.649730731991205</v>
       </c>
       <c r="F141">
-        <v>7.758928158196911</v>
+        <v>5.29116599489278</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>8.842935301694688</v>
+        <v>9.114848542907671</v>
       </c>
       <c r="C142">
-        <v>7.768466832749205</v>
+        <v>6.333619164094602</v>
       </c>
       <c r="D142">
-        <v>12.05219938138939</v>
+        <v>8.009762320191918</v>
       </c>
       <c r="E142">
-        <v>8.381002670942832</v>
+        <v>8.720630402267775</v>
       </c>
       <c r="F142">
-        <v>7.829225634210546</v>
+        <v>5.332000925825776</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>8.893988215369284</v>
+        <v>9.194639068993869</v>
       </c>
       <c r="C143">
-        <v>7.831211452769309</v>
+        <v>6.38566994808582</v>
       </c>
       <c r="D143">
-        <v>12.15200339302583</v>
+        <v>8.083024145161007</v>
       </c>
       <c r="E143">
-        <v>8.454399452806776</v>
+        <v>8.791516848302711</v>
       </c>
       <c r="F143">
-        <v>7.899488106550748</v>
+        <v>5.372800330183876</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>8.944735952261905</v>
+        <v>9.274336989303709</v>
       </c>
       <c r="C144">
-        <v>7.893939366473029</v>
+        <v>6.437565582218001</v>
       </c>
       <c r="D144">
-        <v>12.25155141784841</v>
+        <v>8.156248292341507</v>
       </c>
       <c r="E144">
-        <v>8.52774168916957</v>
+        <v>8.862390079818583</v>
       </c>
       <c r="F144">
-        <v>7.969715820675441</v>
+        <v>5.413564337688594</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>8.995179591248167</v>
+        <v>9.35394247125498</v>
       </c>
       <c r="C145">
-        <v>7.956650674862868</v>
+        <v>6.489306539668108</v>
       </c>
       <c r="D145">
-        <v>12.35084407644236</v>
+        <v>8.229434843851879</v>
       </c>
       <c r="E145">
-        <v>8.601029604518969</v>
+        <v>8.933250109038719</v>
       </c>
       <c r="F145">
-        <v>8.039909025672555</v>
+        <v>5.454293080741531</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>9.045320287733336</v>
+        <v>9.433455699833896</v>
       </c>
       <c r="C146">
-        <v>8.019345480796028</v>
+        <v>6.540893293187221</v>
       </c>
       <c r="D146">
-        <v>12.44988203793339</v>
+        <v>8.30258388853513</v>
       </c>
       <c r="E146">
-        <v>8.674263432705038</v>
+        <v>9.00409695041215</v>
       </c>
       <c r="F146">
-        <v>8.110067972707155</v>
+        <v>5.494986694105879</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>9.095159278620338</v>
+        <v>9.51287687689045</v>
       </c>
       <c r="C147">
-        <v>8.082023889253822</v>
+        <v>6.5923263150797</v>
       </c>
       <c r="D147">
-        <v>12.54866601707314</v>
+        <v>8.375695521195187</v>
       </c>
       <c r="E147">
-        <v>8.747443415177587</v>
+        <v>9.074930620629388</v>
       </c>
       <c r="F147">
-        <v>8.180192915674473</v>
+        <v>5.535645314201685</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>9.144697867712216</v>
+        <v>9.592206220074903</v>
       </c>
       <c r="C148">
-        <v>8.144686006808914</v>
+        <v>6.643606077111023</v>
       </c>
       <c r="D148">
-        <v>12.64719677208504</v>
+        <v>8.448769842795389</v>
       </c>
       <c r="E148">
-        <v>8.820569801686283</v>
+        <v>9.145751138359962</v>
       </c>
       <c r="F148">
-        <v>8.250284110769096</v>
+        <v>5.576269080301729</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>9.193937426442545</v>
+        <v>9.671443961790501</v>
       </c>
       <c r="C149">
-        <v>8.2073319418373</v>
+        <v>6.694733050450829</v>
       </c>
       <c r="D149">
-        <v>12.7454751006473</v>
+        <v>8.521806959405202</v>
       </c>
       <c r="E149">
-        <v>8.893642848339766</v>
+        <v>9.216558524288253</v>
       </c>
       <c r="F149">
-        <v>8.32034181609065</v>
+        <v>5.616858132566883</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>9.242879387076245</v>
+        <v>9.750590348626774</v>
       </c>
       <c r="C150">
-        <v>8.269961804013501</v>
+        <v>6.745707705636255</v>
       </c>
       <c r="D150">
-        <v>12.84350183910867</v>
+        <v>8.594806982800534</v>
       </c>
       <c r="E150">
-        <v>8.966662818584625</v>
+        <v>9.287352800858233</v>
       </c>
       <c r="F150">
-        <v>8.390366291848281</v>
+        <v>5.657412613408789</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>9.291525236509258</v>
+        <v>9.829645640168561</v>
       </c>
       <c r="C151">
-        <v>8.332575704588777</v>
+        <v>6.796530512481237</v>
       </c>
       <c r="D151">
-        <v>12.94127785829399</v>
+        <v>8.667770029184327</v>
       </c>
       <c r="E151">
-        <v>9.039629981450922</v>
+        <v>9.358133992321255</v>
       </c>
       <c r="F151">
-        <v>8.46035779974863</v>
+        <v>5.697932666808972</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>9.339876516323494</v>
+        <v>9.908610108574495</v>
       </c>
       <c r="C152">
-        <v>8.395173755887686</v>
+        <v>6.8472019400802</v>
       </c>
       <c r="D152">
-        <v>13.03880406292853</v>
+        <v>8.740696219713875</v>
       </c>
       <c r="E152">
-        <v>9.112544612110305</v>
+        <v>9.428902124497341</v>
       </c>
       <c r="F152">
-        <v>8.530316603326142</v>
+        <v>5.738418437905175</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>9.387934812547307</v>
+        <v>9.987484037738604</v>
       </c>
       <c r="C153">
-        <v>8.457756071537602</v>
+        <v>6.897722456711772</v>
       </c>
       <c r="D153">
-        <v>13.13608138800805</v>
+        <v>8.813585679847211</v>
       </c>
       <c r="E153">
-        <v>9.185406990953593</v>
+        <v>9.499657224820936</v>
       </c>
       <c r="F153">
-        <v>8.600242967329839</v>
+        <v>5.778870073581862</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>9.435701758796636</v>
+        <v>10.06626772251192</v>
       </c>
       <c r="C154">
-        <v>8.52032276615056</v>
+        <v>6.94809252984166</v>
       </c>
       <c r="D154">
-        <v>13.23311079800562</v>
+        <v>8.88643853905724</v>
       </c>
       <c r="E154">
-        <v>9.258217403345869</v>
+        <v>9.570399322126946</v>
       </c>
       <c r="F154">
-        <v>8.670137157920742</v>
+        <v>5.819287721642263</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9.483179025298766</v>
+        <v>10.14496146760679</v>
       </c>
       <c r="C155">
-        <v>8.582873955350012</v>
+        <v>6.998312626047702</v>
       </c>
       <c r="D155">
-        <v>13.32989328400696</v>
+        <v>8.959254930862279</v>
       </c>
       <c r="E155">
-        <v>9.330976139389156</v>
+        <v>9.641128446689502</v>
       </c>
       <c r="F155">
-        <v>8.739999442483699</v>
+        <v>5.85967153119543</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>9.530368322877761</v>
+        <v>10.22356558857846</v>
       </c>
       <c r="C156">
-        <v>8.645409755647506</v>
+        <v>7.048383211008797</v>
       </c>
       <c r="D156">
-        <v>13.42642986251844</v>
+        <v>9.032034992199035</v>
       </c>
       <c r="E156">
-        <v>9.403683493330179</v>
+        <v>9.711844630030926</v>
       </c>
       <c r="F156">
-        <v>8.809830089320803</v>
+        <v>5.900021652338074</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>9.577271392288319</v>
+        <v>10.30208040847618</v>
       </c>
       <c r="C157">
-        <v>8.70793028435401</v>
+        <v>7.098304749454173</v>
       </c>
       <c r="D157">
-        <v>13.5227215734877</v>
+        <v>9.104778863609116</v>
       </c>
       <c r="E157">
-        <v>9.47633976358569</v>
+        <v>9.782547904957202</v>
       </c>
       <c r="F157">
-        <v>8.879629367903824</v>
+        <v>5.940338236086134</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>9.623890008614639</v>
+        <v>10.38050625958696</v>
       </c>
       <c r="C158">
-        <v>8.770435659545228</v>
+        <v>7.148077705139567</v>
       </c>
       <c r="D158">
-        <v>13.61876947855524</v>
+        <v>9.177486688607649</v>
       </c>
       <c r="E158">
-        <v>9.548945252050641</v>
+        <v>9.85323830538403</v>
       </c>
       <c r="F158">
-        <v>8.949397548339679</v>
+        <v>5.980621434433736</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>9.670225971351332</v>
+        <v>10.45884348304389</v>
       </c>
       <c r="C159">
-        <v>8.83292599993737</v>
+        <v>7.197702540835571</v>
       </c>
       <c r="D159">
-        <v>13.71457466004959</v>
+        <v>9.250158613975948</v>
       </c>
       <c r="E159">
-        <v>9.621500264286812</v>
+        <v>9.923915866372427</v>
       </c>
       <c r="F159">
-        <v>9.019134901673072</v>
+        <v>6.020871400003652</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>9.716281107564045</v>
+        <v>10.53709242566964</v>
       </c>
       <c r="C160">
-        <v>8.895401424897823</v>
+        <v>7.247179718257039</v>
       </c>
       <c r="D160">
-        <v>13.8101382187354</v>
+        <v>9.322794789113107</v>
       </c>
       <c r="E160">
-        <v>9.694005108749908</v>
+        <v>9.994580623968965</v>
       </c>
       <c r="F160">
-        <v>9.088841699494225</v>
+        <v>6.061088286331153</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>9.762057265652142</v>
+        <v>10.61525344320716</v>
       </c>
       <c r="C161">
-        <v>8.957862054298825</v>
+        <v>7.296509698049721</v>
       </c>
       <c r="D161">
-        <v>13.90546127396522</v>
+        <v>9.395395366160502</v>
       </c>
       <c r="E161">
-        <v>9.766460097115694</v>
+        <v>10.06523261524058</v>
       </c>
       <c r="F161">
-        <v>9.158518214008092</v>
+        <v>6.101272247485398</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>9.807556314573709</v>
+        <v>10.69332689695334</v>
       </c>
       <c r="C162">
-        <v>9.020308008567408</v>
+        <v>7.345692939848639</v>
       </c>
       <c r="D162">
-        <v>14.00054495984003</v>
+        <v>9.467960499780782</v>
       </c>
       <c r="E162">
-        <v>9.838865543474084</v>
+        <v>10.13587187812998</v>
       </c>
       <c r="F162">
-        <v>9.228164717953828</v>
+        <v>6.141423438154234</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>9.852780141848426</v>
+        <v>10.77131315430578</v>
       </c>
       <c r="C163">
-        <v>9.082739408522515</v>
+        <v>7.394729902079399</v>
       </c>
       <c r="D163">
-        <v>14.09539042590515</v>
+        <v>9.540490346862533</v>
       </c>
       <c r="E163">
-        <v>9.911221764689321</v>
+        <v>10.20649845148523</v>
       </c>
       <c r="F163">
-        <v>9.297781484404689</v>
+        <v>6.181542013673391</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>9.897730649896214</v>
+        <v>10.84921258936941</v>
       </c>
       <c r="C164">
-        <v>9.145156375445385</v>
+        <v>7.443621042092921</v>
       </c>
       <c r="D164">
-        <v>14.18999883692156</v>
+        <v>9.612985066644107</v>
       </c>
       <c r="E164">
-        <v>9.983529079676112</v>
+        <v>10.27711237493506</v>
       </c>
       <c r="F164">
-        <v>9.367368786903752</v>
+        <v>6.221628129729217</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>9.942409756597741</v>
+        <v>10.92702558064446</v>
       </c>
       <c r="C165">
-        <v>9.207559030921862</v>
+        <v>7.492366816150463</v>
       </c>
       <c r="D165">
-        <v>14.28437136676729</v>
+        <v>9.685444820233453</v>
       </c>
       <c r="E165">
-        <v>10.05578780965129</v>
+        <v>10.34771368890602</v>
       </c>
       <c r="F165">
-        <v>9.436926899149942</v>
+        <v>6.261681942582567</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>9.986819390321255</v>
+        <v>11.00475251218419</v>
       </c>
       <c r="C166">
-        <v>9.269947496908994</v>
+        <v>7.540967679239033</v>
       </c>
       <c r="D166">
-        <v>14.37850920412785</v>
+        <v>9.757869770829974</v>
       </c>
       <c r="E166">
-        <v>10.12799827763454</v>
+        <v>10.41830243452334</v>
       </c>
       <c r="F166">
-        <v>9.506456095178381</v>
+        <v>6.301703608786064</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>10.03096149169601</v>
+        <v>11.08239377273856</v>
       </c>
       <c r="C167">
-        <v>9.332321895598218</v>
+        <v>7.589424085268523</v>
       </c>
       <c r="D167">
-        <v>14.47241354828898</v>
+        <v>9.83026008326393</v>
       </c>
       <c r="E167">
-        <v>10.20016080848414</v>
+        <v>10.48887865361221</v>
       </c>
       <c r="F167">
-        <v>9.575956649121652</v>
+        <v>6.341693285269931</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>10.07483800828281</v>
+        <v>11.15994975493836</v>
       </c>
       <c r="C168">
-        <v>9.394682349470449</v>
+        <v>7.637736486928555</v>
       </c>
       <c r="D168">
-        <v>14.56608560499094</v>
+        <v>9.90261592414846</v>
       </c>
       <c r="E168">
-        <v>10.27227572864804</v>
+        <v>10.55944238862191</v>
       </c>
       <c r="F168">
-        <v>9.645428835237624</v>
+        <v>6.381651129281278</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10.1184508968519</v>
+        <v>11.23742085614678</v>
       </c>
       <c r="C169">
-        <v>9.457028981180144</v>
+        <v>7.685905335667139</v>
       </c>
       <c r="D169">
-        <v>14.65952659370096</v>
+        <v>9.974937461597738</v>
       </c>
       <c r="E169">
-        <v>10.34434336602055</v>
+        <v>10.6299936826152</v>
       </c>
       <c r="F169">
-        <v>9.714872927890168</v>
+        <v>6.421577298267585</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.16180211819941</v>
+        <v>11.31480747674056</v>
       </c>
       <c r="C170">
-        <v>9.519361913597235</v>
+        <v>7.733931081788278</v>
       </c>
       <c r="D170">
-        <v>14.75273773883243</v>
+        <v>10.04722486517302</v>
       </c>
       <c r="E170">
-        <v>10.4163640498718</v>
+        <v>10.70053257921099</v>
       </c>
       <c r="F170">
-        <v>9.784289201386972</v>
+        <v>6.461471949962209</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10.20489363935173</v>
+        <v>11.39211002082021</v>
       </c>
       <c r="C171">
-        <v>9.581681269719232</v>
+        <v>7.781814174303699</v>
       </c>
       <c r="D171">
-        <v>14.84572027203325</v>
+        <v>10.11947830583846</v>
       </c>
       <c r="E171">
-        <v>10.48833811059666</v>
+        <v>10.77105912256492</v>
       </c>
       <c r="F171">
-        <v>9.853677930094019</v>
+        <v>6.501335242202234</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>10.24772742926222</v>
+        <v>11.4693288961495</v>
       </c>
       <c r="C172">
-        <v>9.643987172687698</v>
+        <v>7.829555061002026</v>
       </c>
       <c r="D172">
-        <v>14.93847543418706</v>
+        <v>10.1916979557229</v>
       </c>
       <c r="E172">
-        <v>10.56026587975888</v>
+        <v>10.84157335732696</v>
       </c>
       <c r="F172">
-        <v>9.923039388225794</v>
+        <v>6.541167333004629</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10.29030545986496</v>
+        <v>11.54646451271881</v>
       </c>
       <c r="C173">
-        <v>9.70627974573722</v>
+        <v>7.877154188442881</v>
       </c>
       <c r="D173">
-        <v>15.0310044694178</v>
+        <v>10.26388398823358</v>
       </c>
       <c r="E173">
-        <v>10.63214768978182</v>
+        <v>10.9120753286157</v>
       </c>
       <c r="F173">
-        <v>9.992373849951306</v>
+        <v>6.580968380501587</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.33262970381586</v>
+        <v>11.6235172838691</v>
       </c>
       <c r="C174">
-        <v>9.768559112182951</v>
+        <v>7.924612001888061</v>
       </c>
       <c r="D174">
-        <v>15.12330862794689</v>
+        <v>10.33603657773444</v>
       </c>
       <c r="E174">
-        <v>10.70398387405455</v>
+        <v>10.98256508198776</v>
       </c>
       <c r="F174">
-        <v>10.06168158926544</v>
+        <v>6.620738542858001</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.37470213366878</v>
+        <v>11.70048762523381</v>
       </c>
       <c r="C175">
-        <v>9.830825395400501</v>
+        <v>7.971928945350236</v>
       </c>
       <c r="D175">
-        <v>15.21538916556123</v>
+        <v>10.40815589971289</v>
       </c>
       <c r="E175">
-        <v>10.77577476661064</v>
+        <v>11.05304266340793</v>
       </c>
       <c r="F175">
-        <v>10.13096287998472</v>
+        <v>6.660477978349235</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.41652472143687</v>
+        <v>11.77737595460222</v>
       </c>
       <c r="C176">
-        <v>9.893078718794646</v>
+        <v>8.019105461565008</v>
       </c>
       <c r="D176">
-        <v>15.30724734041533</v>
+        <v>10.48024213047576</v>
       </c>
       <c r="E176">
-        <v>10.84752070225246</v>
+        <v>11.1235081192278</v>
       </c>
       <c r="F176">
-        <v>10.20021799575048</v>
+        <v>6.700186845205736</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.45809943665211</v>
+        <v>11.85418269238163</v>
       </c>
       <c r="C177">
-        <v>9.955319205798062</v>
+        <v>8.066141991955719</v>
       </c>
       <c r="D177">
-        <v>15.39888441503346</v>
+        <v>10.55229544723953</v>
       </c>
       <c r="E177">
-        <v>10.91922201624881</v>
+        <v>11.19396149616422</v>
       </c>
       <c r="F177">
-        <v>10.269447209918</v>
+        <v>6.739865301685228</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.49942824693353</v>
+        <v>11.93090826041867</v>
       </c>
       <c r="C178">
-        <v>10.01754697983833</v>
+        <v>8.11303897669772</v>
       </c>
       <c r="D178">
-        <v>15.49030165491321</v>
+        <v>10.6243160279982</v>
       </c>
       <c r="E178">
-        <v>10.99087904445507</v>
+        <v>11.26440284127317</v>
       </c>
       <c r="F178">
-        <v>10.33865079563977</v>
+        <v>6.779513506004114</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.54051311556058</v>
+        <v>12.00755308255571</v>
       </c>
       <c r="C179">
-        <v>10.07976216434627</v>
+        <v>8.159796854636028</v>
       </c>
       <c r="D179">
-        <v>15.58150032677812</v>
+        <v>10.69630405143549</v>
       </c>
       <c r="E179">
-        <v>11.06249212304587</v>
+        <v>11.33483220189017</v>
       </c>
       <c r="F179">
-        <v>10.40782902572428</v>
+        <v>6.819131616300237</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.58135600253127</v>
+        <v>12.08411758430762</v>
       </c>
       <c r="C180">
-        <v>10.14196488268092</v>
+        <v>8.206416063312723</v>
       </c>
       <c r="D180">
-        <v>15.67248170115049</v>
+        <v>10.76825969694456</v>
       </c>
       <c r="E180">
-        <v>11.13406158859626</v>
+        <v>11.40524962567601</v>
       </c>
       <c r="F180">
-        <v>10.47698217270852</v>
+        <v>6.858719790661766</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.62195886202779</v>
+        <v>12.160602192336</v>
       </c>
       <c r="C181">
-        <v>10.2041552581627</v>
+        <v>8.252897038995792</v>
       </c>
       <c r="D181">
-        <v>15.76324704893774</v>
+        <v>10.84018314445268</v>
       </c>
       <c r="E181">
-        <v>11.20558777790568</v>
+        <v>11.47565516057628</v>
       </c>
       <c r="F181">
-        <v>10.54611050878329</v>
+        <v>6.89827818703266</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.66232364364713</v>
+        <v>12.23700733498822</v>
       </c>
       <c r="C182">
-        <v>10.26633341413346</v>
+        <v>8.299240216606643</v>
       </c>
       <c r="D182">
-        <v>15.85379764180088</v>
+        <v>10.91207457450608</v>
       </c>
       <c r="E182">
-        <v>11.27707102803658</v>
+        <v>11.54604885470405</v>
       </c>
       <c r="F182">
-        <v>10.61521430578014</v>
+        <v>6.937806963261262</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.70245229002789</v>
+        <v>12.31333344141997</v>
       </c>
       <c r="C183">
-        <v>10.3284994737359</v>
+        <v>8.345446029766871</v>
       </c>
       <c r="D183">
-        <v>15.94413475381942</v>
+        <v>10.98393416807257</v>
       </c>
       <c r="E183">
-        <v>11.34851167617062</v>
+        <v>11.61643075646382</v>
       </c>
       <c r="F183">
-        <v>10.68429383518524</v>
+        <v>6.977306277034489</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.74234673785784</v>
+        <v>12.3895809418683</v>
       </c>
       <c r="C184">
-        <v>10.39065356003932</v>
+        <v>8.391514910791388</v>
       </c>
       <c r="D184">
-        <v>16.03425965782496</v>
+        <v>11.05576210662434</v>
       </c>
       <c r="E184">
-        <v>11.41991005946188</v>
+        <v>11.68680091454418</v>
       </c>
       <c r="F184">
-        <v>10.75334936806347</v>
+        <v>7.016776285869374</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.7820089161915</v>
+        <v>12.46575026768949</v>
       </c>
       <c r="C185">
-        <v>10.45279579618215</v>
+        <v>8.43744729065415</v>
       </c>
       <c r="D185">
-        <v>16.12417362721115</v>
+        <v>11.12755857199542</v>
       </c>
       <c r="E185">
-        <v>11.49126651520213</v>
+        <v>11.75715937769652</v>
       </c>
       <c r="F185">
-        <v>10.82238117511518</v>
+        <v>7.056217147124614</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.82144074714329</v>
+        <v>12.54184185067611</v>
       </c>
       <c r="C186">
-        <v>10.51492630500558</v>
+        <v>8.483243599022657</v>
       </c>
       <c r="D186">
-        <v>16.21387793591546</v>
+        <v>11.19932374638607</v>
       </c>
       <c r="E186">
-        <v>11.5625813807614</v>
+        <v>11.82750619491795</v>
       </c>
       <c r="F186">
-        <v>10.89138952658819</v>
+        <v>7.095629017927522</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.86064414452766</v>
+        <v>12.61785612352461</v>
       </c>
       <c r="C187">
-        <v>10.57704520927148</v>
+        <v>8.528904264234471</v>
       </c>
       <c r="D187">
-        <v>16.30337385619494</v>
+        <v>11.27105781232617</v>
       </c>
       <c r="E187">
-        <v>11.63385499309089</v>
+        <v>11.89784141545892</v>
       </c>
       <c r="F187">
-        <v>10.96037469232176</v>
+        <v>7.135012055222443</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.89962101274543</v>
+        <v>12.69379351944027</v>
       </c>
       <c r="C188">
-        <v>10.63915263172557</v>
+        <v>8.574429713292439</v>
       </c>
       <c r="D188">
-        <v>16.39266266002264</v>
+        <v>11.34276095258974</v>
       </c>
       <c r="E188">
-        <v>11.70508768914202</v>
+        <v>11.96816508860797</v>
       </c>
       <c r="F188">
-        <v>11.02933694170665</v>
+        <v>7.174366415702491</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>10.93837324826981</v>
+        <v>12.76965447194643</v>
       </c>
       <c r="C189">
-        <v>10.70124869490614</v>
+        <v>8.619820371891562</v>
       </c>
       <c r="D189">
-        <v>16.48174561842876</v>
+        <v>11.41443335023189</v>
       </c>
       <c r="E189">
-        <v>11.77627980614588</v>
+        <v>12.03847726383935</v>
       </c>
       <c r="F189">
-        <v>11.09827654367114</v>
+        <v>7.213692255830499</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>10.97690273954152</v>
+        <v>12.84543941520354</v>
       </c>
       <c r="C190">
-        <v>10.76333352119247</v>
+        <v>8.665076664378617</v>
       </c>
       <c r="D190">
-        <v>16.5706240004156</v>
+        <v>11.48607518846684</v>
       </c>
       <c r="E190">
-        <v>11.84743168051223</v>
+        <v>12.1087779908157</v>
       </c>
       <c r="F190">
-        <v>11.1671937666974</v>
+        <v>7.252989731831325</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>11.01521136219691</v>
+        <v>12.92114878338586</v>
       </c>
       <c r="C191">
-        <v>10.82540723286933</v>
+        <v>8.710199013776807</v>
       </c>
       <c r="D191">
-        <v>16.6592990740943</v>
+        <v>11.55768665077213</v>
       </c>
       <c r="E191">
-        <v>11.91854364854099</v>
+        <v>12.17906731924844</v>
       </c>
       <c r="F191">
-        <v>11.23608887876981</v>
+        <v>7.292258999615421</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>11.05330098286452</v>
+        <v>12.99678301096608</v>
       </c>
       <c r="C192">
-        <v>10.88746995207459</v>
+        <v>8.755187841791482</v>
       </c>
       <c r="D192">
-        <v>16.74777210538445</v>
+        <v>11.62926792066971</v>
       </c>
       <c r="E192">
-        <v>11.98961604676901</v>
+        <v>12.24934529897801</v>
       </c>
       <c r="F192">
-        <v>11.3049621474159</v>
+        <v>7.331500214803953</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>11.09117346282215</v>
+        <v>13.0723425326086</v>
       </c>
       <c r="C193">
-        <v>10.94952180074691</v>
+        <v>8.800043568781957</v>
       </c>
       <c r="D193">
-        <v>16.83604435786683</v>
+        <v>11.70081918177945</v>
       </c>
       <c r="E193">
-        <v>12.06064921087711</v>
+        <v>12.31961197998416</v>
       </c>
       <c r="F193">
-        <v>11.37381383965014</v>
+        <v>7.370713532825976</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>11.12883064686721</v>
+        <v>13.14782778284361</v>
       </c>
       <c r="C194">
-        <v>11.01156290068494</v>
+        <v>8.844766613788359</v>
       </c>
       <c r="D194">
-        <v>16.92411709376875</v>
+        <v>11.7723406179055</v>
       </c>
       <c r="E194">
-        <v>12.13164347634764</v>
+        <v>12.38986741228417</v>
       </c>
       <c r="F194">
-        <v>11.44264422200215</v>
+        <v>7.409899108726408</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>11.16627437047837</v>
+        <v>13.22323919635243</v>
       </c>
       <c r="C195">
-        <v>11.07359337353707</v>
+        <v>8.889357394524399</v>
       </c>
       <c r="D195">
-        <v>17.01199157202373</v>
+        <v>11.84383241289077</v>
       </c>
       <c r="E195">
-        <v>12.20259917849921</v>
+        <v>12.46011164598268</v>
       </c>
       <c r="F195">
-        <v>11.51145356049634</v>
+        <v>7.449057097195367</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11.20350646255414</v>
+        <v>13.2985772076013</v>
       </c>
       <c r="C196">
-        <v>11.13561334074406</v>
+        <v>8.933816327366115</v>
       </c>
       <c r="D196">
-        <v>17.09966904921081</v>
+        <v>11.91529475045446</v>
       </c>
       <c r="E196">
-        <v>12.27351665214229</v>
+        <v>12.53034473129449</v>
       </c>
       <c r="F196">
-        <v>11.58024212064443</v>
+        <v>7.488187652609655</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>11.24052873725947</v>
+        <v>13.37384225088706</v>
       </c>
       <c r="C197">
-        <v>11.19762292357891</v>
+        <v>8.978143827375048</v>
       </c>
       <c r="D197">
-        <v>17.18715077969987</v>
+        <v>11.98672781437425</v>
       </c>
       <c r="E197">
-        <v>12.34439623162215</v>
+        <v>12.6005667184455</v>
       </c>
       <c r="F197">
-        <v>11.64901016746341</v>
+        <v>7.527290929203379</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>11.27734299796262</v>
+        <v>13.44903476042193</v>
       </c>
       <c r="C198">
-        <v>11.25962224316668</v>
+        <v>9.022340308279109</v>
       </c>
       <c r="D198">
-        <v>17.27443801426801</v>
+        <v>12.05813178873184</v>
       </c>
       <c r="E198">
-        <v>12.41523825092856</v>
+        <v>12.67077765771957</v>
       </c>
       <c r="F198">
-        <v>11.71775796541747</v>
+        <v>7.566367080627705</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>11.31395103831205</v>
+        <v>13.52415516998004</v>
       </c>
       <c r="C199">
-        <v>11.32161142040185</v>
+        <v>9.066406182481252</v>
       </c>
       <c r="D199">
-        <v>17.36153200100447</v>
+        <v>12.12950685715395</v>
       </c>
       <c r="E199">
-        <v>12.48604304360615</v>
+        <v>12.74097759950369</v>
       </c>
       <c r="F199">
-        <v>11.78648577844064</v>
+        <v>7.605416260244815</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.35035464058543</v>
+        <v>13.59920391310919</v>
       </c>
       <c r="C200">
-        <v>11.38359057599685</v>
+        <v>9.110341861070332</v>
       </c>
       <c r="D200">
-        <v>17.44843398503876</v>
+        <v>12.20085320330891</v>
       </c>
       <c r="E200">
-        <v>12.55681094262877</v>
+        <v>12.8111665941663</v>
       </c>
       <c r="F200">
-        <v>11.85519387000817</v>
+        <v>7.644438621109546</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.38655557435067</v>
+        <v>13.6741814229889</v>
       </c>
       <c r="C201">
-        <v>11.44555983051243</v>
+        <v>9.154147753804308</v>
       </c>
       <c r="D201">
-        <v>17.53514520778546</v>
+        <v>12.27217101100192</v>
       </c>
       <c r="E201">
-        <v>12.62754228052382</v>
+        <v>12.88134469211531</v>
       </c>
       <c r="F201">
-        <v>11.92388250301172</v>
+        <v>7.683434315988578</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.42255559822187</v>
+        <v>13.74908813228913</v>
       </c>
       <c r="C202">
-        <v>11.50751930426981</v>
+        <v>9.197824269125768</v>
       </c>
       <c r="D202">
-        <v>17.62166690766859</v>
+        <v>12.34346046383526</v>
       </c>
       <c r="E202">
-        <v>12.69823738940883</v>
+        <v>12.95151194382026</v>
       </c>
       <c r="F202">
-        <v>11.99255193977739</v>
+        <v>7.722403497131982</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>11.4583564596604</v>
+        <v>13.82392447336193</v>
       </c>
       <c r="C203">
-        <v>11.5694691173995</v>
+        <v>9.241371814163518</v>
       </c>
       <c r="D203">
-        <v>17.70800031950736</v>
+        <v>12.414721745226</v>
       </c>
       <c r="E203">
-        <v>12.76889660070141</v>
+        <v>13.02166839974437</v>
       </c>
       <c r="F203">
-        <v>12.0612024421109</v>
+        <v>7.761346316459498</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>11.49395989330235</v>
+        <v>13.89869087792518</v>
       </c>
       <c r="C204">
-        <v>11.63140938985851</v>
+        <v>9.284790794724143</v>
       </c>
       <c r="D204">
-        <v>17.7941466743331</v>
+        <v>12.485955038544</v>
       </c>
       <c r="E204">
-        <v>12.83952024531504</v>
+        <v>13.09181411036083</v>
       </c>
       <c r="F204">
-        <v>12.12983427138786</v>
+        <v>7.800262925582776</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>11.52936762211032</v>
+        <v>13.9733877772002</v>
       </c>
       <c r="C205">
-        <v>11.69334024138793</v>
+        <v>9.328081615307193</v>
       </c>
       <c r="D205">
-        <v>17.88010719996232</v>
+        <v>12.55716052713279</v>
       </c>
       <c r="E205">
-        <v>12.91010865377872</v>
+        <v>13.16194912617667</v>
       </c>
       <c r="F205">
-        <v>12.1984476882937</v>
+        <v>7.839153475689358</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>11.5645813588369</v>
+        <v>14.04801560188627</v>
       </c>
       <c r="C206">
-        <v>11.75526179151463</v>
+        <v>9.371244679100009</v>
       </c>
       <c r="D206">
-        <v>17.96588312003272</v>
+        <v>12.62833839403383</v>
       </c>
       <c r="E206">
-        <v>12.9806621558496</v>
+        <v>13.2320734976931</v>
       </c>
       <c r="F206">
-        <v>12.26704295300702</v>
+        <v>7.878018117548113</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.59960280229387</v>
+        <v>14.12257478197781</v>
       </c>
       <c r="C207">
-        <v>11.81717415957394</v>
+        <v>9.414280387978584</v>
       </c>
       <c r="D207">
-        <v>18.05147565444167</v>
+        <v>12.69948882217026</v>
       </c>
       <c r="E207">
-        <v>13.05118108074767</v>
+        <v>13.30218727540087</v>
       </c>
       <c r="F207">
-        <v>12.33562032522053</v>
+        <v>7.916857001547121</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>11.63443363972106</v>
+        <v>14.19706574690993</v>
       </c>
       <c r="C208">
-        <v>11.8790774646983</v>
+        <v>9.457189142520606</v>
       </c>
       <c r="D208">
-        <v>18.1368860194713</v>
+        <v>12.77061199435023</v>
       </c>
       <c r="E208">
-        <v>13.12166575719543</v>
+        <v>13.37229050980062</v>
       </c>
       <c r="F208">
-        <v>12.40418006408329</v>
+        <v>7.955670277732343</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>11.66907554741894</v>
+        <v>14.27148892541071</v>
       </c>
       <c r="C209">
-        <v>11.94097182579657</v>
+        <v>9.499971341994376</v>
       </c>
       <c r="D209">
-        <v>18.22211542707269</v>
+        <v>12.8417080931355</v>
       </c>
       <c r="E209">
-        <v>13.19211651322783</v>
+        <v>13.44238325138186</v>
       </c>
       <c r="F209">
-        <v>12.47272242813798</v>
+        <v>7.994458095677983</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>11.70353018889063</v>
+        <v>14.34584474549784</v>
       </c>
       <c r="C210">
-        <v>12.00285736157552</v>
+        <v>9.542627384370117</v>
       </c>
       <c r="D210">
-        <v>18.30716508533129</v>
+        <v>12.91277730088454</v>
       </c>
       <c r="E210">
-        <v>13.26253367626018</v>
+        <v>13.51246555060898</v>
       </c>
       <c r="F210">
-        <v>12.54124767540428</v>
+        <v>8.033220604568214</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>11.73779921533674</v>
+        <v>14.42013363460502</v>
       </c>
       <c r="C211">
-        <v>12.06473419054137</v>
+        <v>9.585157666324511</v>
       </c>
       <c r="D211">
-        <v>18.39203619839025</v>
+        <v>12.98381979979253</v>
       </c>
       <c r="E211">
-        <v>13.33291757314947</v>
+        <v>13.58253745794071</v>
       </c>
       <c r="F211">
-        <v>12.60975606342165</v>
+        <v>8.071957953191633</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>11.77188426658771</v>
+        <v>14.49435601923938</v>
       </c>
       <c r="C212">
-        <v>12.12660243097227</v>
+        <v>9.627562583235282</v>
       </c>
       <c r="D212">
-        <v>18.47672996600339</v>
+        <v>13.05483577188826</v>
       </c>
       <c r="E212">
-        <v>13.40326853011999</v>
+        <v>13.65259902381827</v>
       </c>
       <c r="F212">
-        <v>12.67824784911397</v>
+        <v>8.110670289955744</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>11.80578697074433</v>
+        <v>14.56851232513976</v>
       </c>
       <c r="C213">
-        <v>12.18846220093789</v>
+        <v>9.669842529191861</v>
       </c>
       <c r="D213">
-        <v>18.56124758396193</v>
+        <v>13.12582539887194</v>
       </c>
       <c r="E213">
-        <v>13.47358687270823</v>
+        <v>13.72265029864341</v>
       </c>
       <c r="F213">
-        <v>12.7467232888818</v>
+        <v>8.149357762794734</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11.83950894306732</v>
+        <v>14.64260297727721</v>
       </c>
       <c r="C214">
-        <v>12.25031361830778</v>
+        <v>9.711997896996454</v>
       </c>
       <c r="D214">
-        <v>18.64559024381625</v>
+        <v>13.19678886223768</v>
       </c>
       <c r="E214">
-        <v>13.54387292584371</v>
+        <v>13.79269133279993</v>
       </c>
       <c r="F214">
-        <v>12.81518263859629</v>
+        <v>8.188020519239195</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>11.87305178720216</v>
+        <v>14.71662840012362</v>
       </c>
       <c r="C215">
-        <v>12.31215680072086</v>
+        <v>9.754029078163683</v>
       </c>
       <c r="D215">
-        <v>18.72975913273227</v>
+        <v>13.26772634334077</v>
       </c>
       <c r="E215">
-        <v>13.61412701383859</v>
+        <v>13.86272217664868</v>
       </c>
       <c r="F215">
-        <v>12.88362615360462</v>
+        <v>8.226658706434803</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>11.90641709536132</v>
+        <v>14.79058901681412</v>
       </c>
       <c r="C216">
-        <v>12.37399186560427</v>
+        <v>9.795936462930229</v>
       </c>
       <c r="D216">
-        <v>18.813755433839</v>
+        <v>13.33863802317458</v>
       </c>
       <c r="E216">
-        <v>13.68434946029355</v>
+        <v>13.93274288050026</v>
       </c>
       <c r="F216">
-        <v>12.95205408868016</v>
+        <v>8.265272471089828</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>11.93960644711236</v>
+        <v>14.86448524973187</v>
       </c>
       <c r="C217">
-        <v>12.43581893018371</v>
+        <v>9.837720440252385</v>
       </c>
       <c r="D217">
-        <v>18.89758032576488</v>
+        <v>13.40952408250567</v>
       </c>
       <c r="E217">
-        <v>13.75454058816995</v>
+        <v>14.00275349463681</v>
       </c>
       <c r="F217">
-        <v>13.02046669806721</v>
+        <v>8.303861959465559</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>11.97262141027135</v>
+        <v>14.93831752048139</v>
       </c>
       <c r="C218">
-        <v>12.49763811145667</v>
+        <v>9.879381397811317</v>
       </c>
       <c r="D218">
-        <v>18.98123498284752</v>
+        <v>13.48038470188477</v>
       </c>
       <c r="E218">
-        <v>13.82470071982502</v>
+        <v>14.07275406931223</v>
       </c>
       <c r="F218">
-        <v>13.08886423547413</v>
+        <v>8.342427317403708</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>12.0054635414342</v>
+        <v>15.01208625029204</v>
       </c>
       <c r="C219">
-        <v>12.55944952620587</v>
+        <v>9.920919722019631</v>
       </c>
       <c r="D219">
-        <v>19.06472057538873</v>
+        <v>13.55122006160614</v>
       </c>
       <c r="E219">
-        <v>13.89483017687683</v>
+        <v>14.14274465472262</v>
       </c>
       <c r="F219">
-        <v>13.1572469540654</v>
+        <v>8.380968690364513</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12.03813438467662</v>
+        <v>15.08579185872179</v>
       </c>
       <c r="C220">
-        <v>12.62125329100555</v>
+        <v>9.962335798018971</v>
       </c>
       <c r="D220">
-        <v>19.1480382688932</v>
+        <v>13.62203034164049</v>
       </c>
       <c r="E220">
-        <v>13.96492928028856</v>
+        <v>14.21272530102644</v>
       </c>
       <c r="F220">
-        <v>13.22561510646554</v>
+        <v>8.419486223324659</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.0706354724449</v>
+        <v>15.15943476464963</v>
       </c>
       <c r="C221">
-        <v>12.68304952221189</v>
+        <v>10.0036300096887</v>
       </c>
       <c r="D221">
-        <v>19.23118922450454</v>
+        <v>13.69281572170506</v>
       </c>
       <c r="E221">
-        <v>14.03499835040717</v>
+        <v>14.2826960583467</v>
       </c>
       <c r="F221">
-        <v>13.29396894476897</v>
+        <v>8.457980060844136</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.10296832576295</v>
+        <v>15.23301538613144</v>
       </c>
       <c r="C222">
-        <v>12.74483833596096</v>
+        <v>10.04480273964919</v>
       </c>
       <c r="D222">
-        <v>19.31417459884401</v>
+        <v>13.7635763812824</v>
       </c>
       <c r="E222">
-        <v>14.10503770684707</v>
+        <v>14.35265697674497</v>
       </c>
       <c r="F222">
-        <v>13.36230872056536</v>
+        <v>8.496450347059351</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12.13513445384834</v>
+        <v>15.30653414065547</v>
       </c>
       <c r="C223">
-        <v>12.8066198481773</v>
+        <v>10.08585436925915</v>
       </c>
       <c r="D223">
-        <v>19.3969955451805</v>
+        <v>13.83431249951489</v>
       </c>
       <c r="E223">
-        <v>14.17504766855374</v>
+        <v>14.42260810623697</v>
       </c>
       <c r="F223">
-        <v>13.43063468487252</v>
+        <v>8.534897225699899</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12.16713535410305</v>
+        <v>15.37999144421713</v>
       </c>
       <c r="C224">
-        <v>12.86839417457215</v>
+        <v>10.12678527862364</v>
       </c>
       <c r="D224">
-        <v>19.47965321097232</v>
+        <v>13.90502425526921</v>
       </c>
       <c r="E224">
-        <v>14.24502855382598</v>
+        <v>14.49254949679658</v>
       </c>
       <c r="F224">
-        <v>13.49894708818993</v>
+        <v>8.573320840022109</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>12.19897251258761</v>
+        <v>15.45338771204945</v>
       </c>
       <c r="C225">
-        <v>12.9301614306355</v>
+        <v>10.16759584659965</v>
       </c>
       <c r="D225">
-        <v>19.56214873955157</v>
+        <v>13.9757118271499</v>
       </c>
       <c r="E225">
-        <v>14.3149806802696</v>
+        <v>14.56248119833281</v>
       </c>
       <c r="F225">
-        <v>13.56724618049994</v>
+        <v>8.611721332860101</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>12.23064740407802</v>
+        <v>15.52672335849328</v>
       </c>
       <c r="C226">
-        <v>12.99192173164438</v>
+        <v>10.20828645080534</v>
       </c>
       <c r="D226">
-        <v>19.64448326965978</v>
+        <v>14.04637539345216</v>
       </c>
       <c r="E226">
-        <v>14.38490436479182</v>
+        <v>14.63240326070235</v>
       </c>
       <c r="F226">
-        <v>13.63553221125477</v>
+        <v>8.650098846636745</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>12.26216149152354</v>
+        <v>15.59999879709468</v>
       </c>
       <c r="C227">
-        <v>13.0536751926647</v>
+        <v>10.24885746760212</v>
       </c>
       <c r="D227">
-        <v>19.72665793696143</v>
+        <v>14.1170151321549</v>
       </c>
       <c r="E227">
-        <v>14.45479992363682</v>
+        <v>14.70231573371465</v>
       </c>
       <c r="F227">
-        <v>13.70380542937469</v>
+        <v>8.688453523337111</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>12.29351622665227</v>
+        <v>15.67321444016797</v>
       </c>
       <c r="C228">
-        <v>13.11542192854175</v>
+        <v>10.28930927211553</v>
       </c>
       <c r="D228">
-        <v>19.80867387147708</v>
+        <v>14.18763122094699</v>
       </c>
       <c r="E228">
-        <v>14.52466767237707</v>
+        <v>14.77221866711105</v>
       </c>
       <c r="F228">
-        <v>13.77206608326137</v>
+        <v>8.72678550449505</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>12.3247130502299</v>
+        <v>15.746370699144</v>
       </c>
       <c r="C229">
-        <v>13.17716205390762</v>
+        <v>10.32964223823679</v>
       </c>
       <c r="D229">
-        <v>19.89053219863091</v>
+        <v>14.2582238372384</v>
       </c>
       <c r="E229">
-        <v>14.59450792587547</v>
+        <v>14.84211211057551</v>
       </c>
       <c r="F229">
-        <v>13.84031442081745</v>
+        <v>8.765094931217053</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.35575339141506</v>
+        <v>15.81946798449269</v>
       </c>
       <c r="C230">
-        <v>13.23889568318543</v>
+        <v>10.369856738643</v>
       </c>
       <c r="D230">
-        <v>19.97223403953697</v>
+        <v>14.32879315809258</v>
       </c>
       <c r="E230">
-        <v>14.66432099832305</v>
+        <v>14.91199611374018</v>
       </c>
       <c r="F230">
-        <v>13.90855068940466</v>
+        <v>8.803381944189503</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.38663866831676</v>
+        <v>15.89250670573903</v>
       </c>
       <c r="C231">
-        <v>13.30062293057851</v>
+        <v>10.4099531447593</v>
       </c>
       <c r="D231">
-        <v>20.05378051157969</v>
+        <v>14.39933936027092</v>
       </c>
       <c r="E231">
-        <v>14.73410720324927</v>
+        <v>14.9818707261668</v>
       </c>
       <c r="F231">
-        <v>13.97677513587692</v>
+        <v>8.841646683648426</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.41737028822174</v>
+        <v>15.9654872713287</v>
       </c>
       <c r="C232">
-        <v>13.36234391007807</v>
+        <v>10.44993182679429</v>
       </c>
       <c r="D232">
-        <v>20.13517272753815</v>
+        <v>14.46986262025684</v>
       </c>
       <c r="E232">
-        <v>14.80386685347142</v>
+        <v>15.05173599735567</v>
       </c>
       <c r="F232">
-        <v>14.04498800657597</v>
+        <v>8.879889289398372</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.44794964721535</v>
+        <v>16.03841008872768</v>
       </c>
       <c r="C233">
-        <v>13.42405873546621</v>
+        <v>10.48979315373574</v>
       </c>
       <c r="D233">
-        <v>20.21641179517592</v>
+        <v>14.54036311419162</v>
       </c>
       <c r="E233">
-        <v>14.87360026113102</v>
+        <v>15.12159197674969</v>
       </c>
       <c r="F233">
-        <v>14.11318954733314</v>
+        <v>8.918109900812789</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.47837813048077</v>
+        <v>16.11127556447111</v>
       </c>
       <c r="C234">
-        <v>13.48576752030962</v>
+        <v>10.52953749337101</v>
       </c>
       <c r="D234">
-        <v>20.29749881810755</v>
+        <v>14.61084101789817</v>
       </c>
       <c r="E234">
-        <v>14.94330773771311</v>
+        <v>15.19143871372204</v>
       </c>
       <c r="F234">
-        <v>14.18138000346874</v>
+        <v>8.956308656844518</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.50865711247356</v>
+        <v>16.18408410419998</v>
       </c>
       <c r="C235">
-        <v>13.54747037796274</v>
+        <v>10.56916521225607</v>
       </c>
       <c r="D235">
-        <v>20.37843489575177</v>
+        <v>14.68129650689376</v>
       </c>
       <c r="E235">
-        <v>15.01298959399385</v>
+        <v>15.26127625757968</v>
       </c>
       <c r="F235">
-        <v>14.24955961979671</v>
+        <v>8.994485695993045</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.53878795690018</v>
+        <v>16.25683611234772</v>
       </c>
       <c r="C236">
-        <v>13.60916742157085</v>
+        <v>10.60867667574457</v>
       </c>
       <c r="D236">
-        <v>20.45922112333167</v>
+        <v>14.75172975639066</v>
       </c>
       <c r="E236">
-        <v>15.08264614007536</v>
+        <v>15.33110465757241</v>
       </c>
       <c r="F236">
-        <v>14.31772864063664</v>
+        <v>9.032641156329921</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.56877201670253</v>
+        <v>16.32953199241221</v>
       </c>
       <c r="C237">
-        <v>13.6708587640683</v>
+        <v>10.64807224798521</v>
       </c>
       <c r="D237">
-        <v>20.53985859121751</v>
+        <v>14.82214094125579</v>
       </c>
       <c r="E237">
-        <v>15.15227768539706</v>
+        <v>15.40092396287674</v>
       </c>
       <c r="F237">
-        <v>14.38588730979739</v>
+        <v>9.070775175501549</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.59861063429641</v>
+        <v>16.40217214693011</v>
       </c>
       <c r="C238">
-        <v>13.73254451817762</v>
+        <v>10.68735229193119</v>
       </c>
       <c r="D238">
-        <v>20.62034838558829</v>
+        <v>14.89253023604104</v>
       </c>
       <c r="E238">
-        <v>15.22188453871035</v>
+        <v>15.4707342225977</v>
       </c>
       <c r="F238">
-        <v>14.45403587059037</v>
+        <v>9.108887890721878</v>
       </c>
     </row>
   </sheetData>
